--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
   <si>
     <t>实体id</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>月战老兵</t>
+  </si>
+  <si>
+    <t>恶魔领主</t>
+  </si>
+  <si>
+    <t>恶魔领主-小人</t>
+  </si>
+  <si>
+    <t>英雄</t>
   </si>
   <si>
     <t>角色id</t>
@@ -362,6 +371,12 @@
     </r>
   </si>
   <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
     <t>建筑id</t>
   </si>
   <si>
@@ -542,9 +557,6 @@
     <t>范围伤害_炮弹</t>
   </si>
   <si>
-    <t>7,7</t>
-  </si>
-  <si>
     <t>1,25</t>
   </si>
   <si>
@@ -569,6 +581,9 @@
     <t>全属性单体伤害_灵梦</t>
   </si>
   <si>
+    <t>单体伤害_恶魔领主</t>
+  </si>
+  <si>
     <t>伤害id</t>
   </si>
   <si>
@@ -648,6 +663,9 @@
   </si>
   <si>
     <t>物理_远程_铃仙</t>
+  </si>
+  <si>
+    <t>物理_恶魔领主普攻</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1337,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1681,10 +1702,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1821,7 +1842,7 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H4">
@@ -1856,7 +1877,7 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H5">
@@ -1891,7 +1912,7 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6">
@@ -1993,7 +2014,7 @@
       <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
@@ -2028,7 +2049,7 @@
       <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
@@ -2101,7 +2122,7 @@
       <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H12">
@@ -2254,6 +2275,41 @@
         <v>5</v>
       </c>
       <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>4000001</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2267,10 +2323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2292,52 +2348,52 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:16">
@@ -2345,49 +2401,49 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
@@ -2422,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>25</v>
@@ -2434,7 +2490,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>25</v>
@@ -2463,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2513,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2563,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J6">
         <v>35</v>
@@ -2613,10 +2669,10 @@
         <v>2.5</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J7">
         <v>35</v>
@@ -2663,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
@@ -2713,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
@@ -2763,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
@@ -2813,7 +2869,7 @@
         <v>3.5</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
@@ -2863,10 +2919,10 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2883,8 +2939,8 @@
       <c r="N12">
         <v>31000001</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>108</v>
+      <c r="O12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2933,8 +2989,8 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>109</v>
+      <c r="O13" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2983,8 +3039,8 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>109</v>
+      <c r="O14" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3013,10 +3069,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3063,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
@@ -3087,6 +3143,56 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>4000001</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>31000002</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>1000</v>
       </c>
     </row>
@@ -3113,10 +3219,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3169,63 +3275,63 @@
     <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3234,13 +3340,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3254,13 +3360,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3274,13 +3380,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3298,10 +3404,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3326,58 +3432,58 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:18">
@@ -3391,49 +3497,49 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:18">
@@ -3456,19 +3562,19 @@
         <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -3489,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -3497,7 +3603,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -3509,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -3545,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3553,7 +3659,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -3565,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3601,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3609,7 +3715,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -3621,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3657,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3665,7 +3771,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -3677,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3713,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3721,7 +3827,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -3745,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -3769,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3777,7 +3883,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -3801,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -3825,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3833,7 +3939,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -3857,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -3889,7 +3995,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -3913,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -3937,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3945,7 +4051,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -3969,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -3993,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4001,7 +4107,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4057,7 +4163,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4105,6 +4211,62 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>33000003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="4">
+        <v>41000008</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4117,10 +4279,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4139,66 +4301,66 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
@@ -4218,10 +4380,10 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -4238,7 +4400,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4270,7 +4432,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4302,7 +4464,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4334,7 +4496,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4366,7 +4528,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4398,7 +4560,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>13.5</v>
@@ -4430,7 +4592,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4462,7 +4624,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4486,6 +4648,38 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>41000008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="218">
   <si>
     <t>实体id</t>
   </si>
@@ -54,6 +54,9 @@
     <t>影子尺寸/y偏移</t>
   </si>
   <si>
+    <t>ai模式</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>shadowSize/yoffset</t>
   </si>
   <si>
+    <t>aiMode</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
   </si>
   <si>
     <t>vector2，float</t>
+  </si>
+  <si>
+    <t>int/int/int/int</t>
   </si>
   <si>
     <t>恶魔小兵</t>
@@ -118,6 +127,9 @@
     <t>6,2,0.5</t>
   </si>
   <si>
+    <t>0/0/0/0</t>
+  </si>
+  <si>
     <t>步兵</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>英雄</t>
   </si>
   <si>
+    <t>1/0/0/0</t>
+  </si>
+  <si>
     <t>角色id</t>
   </si>
   <si>
@@ -346,6 +361,9 @@
   </si>
   <si>
     <t>7.5,2.5</t>
+  </si>
+  <si>
+    <t>钱袋20</t>
   </si>
   <si>
     <t>35,25</t>
@@ -1702,10 +1720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1716,9 +1734,10 @@
     <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="19.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:11">
+    <row r="1" s="3" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1752,78 +1771,87 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:11">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:12">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -1831,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0.6</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -1855,10 +1883,13 @@
         <v>0.5</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:12">
       <c r="A5">
         <v>1000002</v>
       </c>
@@ -1866,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -1890,10 +1921,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1000003</v>
       </c>
@@ -1901,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1925,10 +1959,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1000004</v>
       </c>
@@ -1936,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1960,10 +1997,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1000005</v>
       </c>
@@ -1971,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1995,10 +2035,13 @@
         <v>0.5</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1000006</v>
       </c>
@@ -2006,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -2030,10 +2073,13 @@
         <v>0.5</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1000007</v>
       </c>
@@ -2041,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -2065,10 +2111,13 @@
         <v>0.5</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1000008</v>
       </c>
@@ -2076,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -2100,10 +2149,13 @@
         <v>1.25</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:12">
       <c r="A12">
         <v>2000001</v>
       </c>
@@ -2111,19 +2163,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -2135,10 +2187,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2000002</v>
       </c>
@@ -2146,19 +2201,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -2170,10 +2225,13 @@
         <v>0.75</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2000003</v>
       </c>
@@ -2181,19 +2239,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -2205,10 +2263,13 @@
         <v>0.5</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3000001</v>
       </c>
@@ -2216,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0.2</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H15">
         <v>40</v>
@@ -2240,10 +2301,13 @@
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3000002</v>
       </c>
@@ -2251,19 +2315,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>0.2</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>40</v>
@@ -2275,10 +2339,13 @@
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>4000001</v>
       </c>
@@ -2286,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17">
         <v>150</v>
@@ -2310,7 +2377,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2396,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2348,152 +2418,152 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2519,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2569,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2589,8 +2659,8 @@
       <c r="N5">
         <v>33000001</v>
       </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="O5" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -2619,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J6">
         <v>35</v>
@@ -2669,10 +2739,10 @@
         <v>2.5</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J7">
         <v>35</v>
@@ -2719,10 +2789,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -2769,10 +2839,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -2789,8 +2859,8 @@
       <c r="N9">
         <v>32000004</v>
       </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="O9" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -2819,10 +2889,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -2869,10 +2939,10 @@
         <v>3.5</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -2919,10 +2989,10 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2940,7 +3010,7 @@
         <v>31000001</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2969,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2990,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3019,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3040,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3069,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3119,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J16">
         <v>40</v>
@@ -3169,10 +3239,10 @@
         <v>1.5</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -3219,10 +3289,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3277,62 +3347,62 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3340,13 +3410,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3360,13 +3430,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3380,13 +3450,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3432,170 +3502,170 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -3603,7 +3673,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -3615,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -3627,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -3651,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3659,7 +3729,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -3671,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3683,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -3707,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3715,7 +3785,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -3727,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3739,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -3763,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3771,7 +3841,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -3783,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3795,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -3819,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3827,7 +3897,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -3851,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -3875,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3883,7 +3953,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -3907,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -3931,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3939,7 +4009,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -3963,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -3987,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3995,7 +4065,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -4019,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4043,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4051,7 +4121,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -4075,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -4099,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4107,7 +4177,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4131,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -4155,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4163,7 +4233,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4187,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -4211,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4219,7 +4289,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C15" s="4">
         <v>41000008</v>
@@ -4243,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -4267,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4301,98 +4371,98 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -4400,7 +4470,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4432,7 +4502,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4464,7 +4534,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4496,7 +4566,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4528,7 +4598,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4560,7 +4630,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>13.5</v>
@@ -4592,7 +4662,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4624,7 +4694,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4656,7 +4726,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C12">
         <v>4</v>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="222">
   <si>
     <t>实体id</t>
   </si>
@@ -419,6 +419,12 @@
     <t>血液花费</t>
   </si>
   <si>
+    <t>引用阵型</t>
+  </si>
+  <si>
+    <t>士兵id</t>
+  </si>
+  <si>
     <t>CardId</t>
   </si>
   <si>
@@ -435,6 +441,12 @@
   </si>
   <si>
     <t>BloodCost</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>soldierID</t>
   </si>
   <si>
     <t>恶魔小兵*3</t>
@@ -1723,7 +1735,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2395,7 +2407,7 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -3329,13 +3341,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
@@ -3343,9 +3355,11 @@
     <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
+    <row r="1" s="5" customFormat="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>123</v>
       </c>
@@ -3364,28 +3378,40 @@
       <c r="F1" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -3404,19 +3430,25 @@
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3424,19 +3456,25 @@
       <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3444,25 +3482,37 @@
       <c r="F5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6">
         <v>25</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1000004</v>
       </c>
     </row>
   </sheetData>
@@ -3505,55 +3555,55 @@
         <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:18">
@@ -3567,49 +3617,49 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:18">
@@ -3632,7 +3682,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -3665,7 +3715,7 @@
         <v>25</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -3673,7 +3723,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -3685,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -3721,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3729,7 +3779,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -3741,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3777,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3785,7 +3835,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -3797,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3833,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3841,7 +3891,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -3853,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3889,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3897,7 +3947,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -3921,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -3945,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3953,7 +4003,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -4001,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4009,7 +4059,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -4033,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4065,7 +4115,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -4089,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4113,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4121,7 +4171,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -4169,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4177,7 +4227,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4233,7 +4283,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4289,7 +4339,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" s="4">
         <v>41000008</v>
@@ -4371,66 +4421,66 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
@@ -4470,7 +4520,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4502,7 +4552,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4534,7 +4584,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4566,7 +4616,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4598,7 +4648,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4630,7 +4680,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C9">
         <v>13.5</v>
@@ -4662,7 +4712,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4694,7 +4744,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4726,7 +4776,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12">
         <v>4</v>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="10140" windowHeight="8172" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -149,40 +149,40 @@
     <t>弓箭手</t>
   </si>
   <si>
+    <t>熔炉蛞蝓</t>
+  </si>
+  <si>
+    <t>4-熔炉蛞蝓</t>
+  </si>
+  <si>
+    <t>0,30</t>
+  </si>
+  <si>
+    <t>aoe兵</t>
+  </si>
+  <si>
+    <t>处刑者</t>
+  </si>
+  <si>
+    <t>B4-处刑者</t>
+  </si>
+  <si>
+    <t>-6.4,30</t>
+  </si>
+  <si>
+    <t>教会处刑者</t>
+  </si>
+  <si>
+    <t>风车巨人</t>
+  </si>
+  <si>
+    <t>B-7风车巨人</t>
+  </si>
+  <si>
+    <t>0,15</t>
+  </si>
+  <si>
     <t>炮兵</t>
-  </si>
-  <si>
-    <t>熔炉蛞蝓</t>
-  </si>
-  <si>
-    <t>4-熔炉蛞蝓</t>
-  </si>
-  <si>
-    <t>0,30</t>
-  </si>
-  <si>
-    <t>aoe兵</t>
-  </si>
-  <si>
-    <t>处刑者</t>
-  </si>
-  <si>
-    <t>B4-处刑者</t>
-  </si>
-  <si>
-    <t>-6.4,30</t>
-  </si>
-  <si>
-    <t>教会处刑者</t>
-  </si>
-  <si>
-    <t>风车巨人</t>
-  </si>
-  <si>
-    <t>B-7风车巨人</t>
-  </si>
-  <si>
-    <t>0,15</t>
   </si>
   <si>
     <t>箭塔</t>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -723,34 +723,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -764,14 +736,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,6 +775,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,7 +840,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,55 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,31 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +960,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1026,7 +984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,6 +1063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,21 +1110,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1153,6 +1138,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,148 +1211,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,52 +1387,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>1000004</v>
+        <v>1000005</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1988,25 +1988,25 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -2017,31 +2017,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>1000005</v>
+        <v>1000006</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
       <c r="H8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0.5</v>
@@ -2055,25 +2055,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>1000006</v>
+        <v>1000007</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>1000007</v>
+        <v>1000008</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2102,25 +2102,25 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -2131,34 +2131,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>1000008</v>
+        <v>1000009</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>1.25</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -2407,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>1000004</v>
+        <v>1000005</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2748,39 +2748,39 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>31000004</v>
+        <v>32000003</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>1000005</v>
+        <v>1000006</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2801,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>32000003</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+        <v>32000004</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>1000006</v>
+        <v>1000007</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2871,8 +2871,8 @@
       <c r="N9">
         <v>32000004</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>113</v>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>1000007</v>
+        <v>1000008</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2895,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="s">
         <v>116</v>
@@ -2907,19 +2907,19 @@
         <v>60</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>32000004</v>
+        <v>32000005</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1000008</v>
+        <v>1000009</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2945,37 +2945,37 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>3.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1.5</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>32000005</v>
+        <v>31000004</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3343,7 +3343,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3497,7 +3497,7 @@
         <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>140</v>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10140" windowHeight="8172" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1734,8 +1734,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2407,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3007,7 +3007,7 @@
         <v>115</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -3344,7 +3344,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>1000001</v>
@@ -3483,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1000003</v>
@@ -3509,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1000004</v>
@@ -3526,7 +3526,7 @@
   <sheetPr/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,18 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
-    <sheet name="Character" sheetId="2" r:id="rId2"/>
-    <sheet name="Building" sheetId="3" r:id="rId3"/>
-    <sheet name="SoldierCard" sheetId="5" r:id="rId4"/>
-    <sheet name="Missile" sheetId="4" r:id="rId5"/>
-    <sheet name="Damage" sheetId="6" r:id="rId6"/>
+    <sheet name="SoldierCard" sheetId="5" r:id="rId2"/>
+    <sheet name="Missile" sheetId="4" r:id="rId3"/>
+    <sheet name="Damage" sheetId="6" r:id="rId4"/>
+    <sheet name="Skill" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
   <si>
     <t>实体id</t>
   </si>
@@ -45,9 +44,6 @@
     <t>实体血量</t>
   </si>
   <si>
-    <t>实体伤害</t>
-  </si>
-  <si>
     <t>实体尺寸</t>
   </si>
   <si>
@@ -57,6 +53,57 @@
     <t>ai模式</t>
   </si>
   <si>
+    <t>角色护甲</t>
+  </si>
+  <si>
+    <t>远程防御</t>
+  </si>
+  <si>
+    <t>魔法防御</t>
+  </si>
+  <si>
+    <t>角色攻击时间</t>
+  </si>
+  <si>
+    <t>角色攻击冷却时间</t>
+  </si>
+  <si>
+    <t>角色索敌范围</t>
+  </si>
+  <si>
+    <t>角色索敌偏移</t>
+  </si>
+  <si>
+    <t>角色攻击距离</t>
+  </si>
+  <si>
+    <t>是否有技能</t>
+  </si>
+  <si>
+    <t>角色移速</t>
+  </si>
+  <si>
+    <t>ai类型</t>
+  </si>
+  <si>
+    <t>投射物id</t>
+  </si>
+  <si>
+    <t>特殊词条（/分割）</t>
+  </si>
+  <si>
+    <t>血液掉落</t>
+  </si>
+  <si>
+    <t>技能s</t>
+  </si>
+  <si>
+    <t>技能等级s</t>
+  </si>
+  <si>
+    <t>描述、故事</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -81,9 +128,6 @@
     <t>maxHp</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -93,6 +137,57 @@
     <t>aiMode</t>
   </si>
   <si>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>defence_far</t>
+  </si>
+  <si>
+    <t>defence_magic</t>
+  </si>
+  <si>
+    <t>attackTime</t>
+  </si>
+  <si>
+    <t>attackWaitTime</t>
+  </si>
+  <si>
+    <t>enemyCheck</t>
+  </si>
+  <si>
+    <t>enemyCheckOffset</t>
+  </si>
+  <si>
+    <t>attackDistance</t>
+  </si>
+  <si>
+    <t>haveSkill</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>aiType</t>
+  </si>
+  <si>
+    <t>missileID</t>
+  </si>
+  <si>
+    <t>specialTag</t>
+  </si>
+  <si>
+    <t>bloodDrop</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>skillLevels</t>
+  </si>
+  <si>
+    <t>description|Story</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -109,6 +204,18 @@
   </si>
   <si>
     <t>int/int/int/int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string/string</t>
+  </si>
+  <si>
+    <t>int/int</t>
+  </si>
+  <si>
+    <t>string|string</t>
   </si>
   <si>
     <t>恶魔小兵</t>
@@ -130,6 +237,18 @@
     <t>0/0/0/0</t>
   </si>
   <si>
+    <t>15,15</t>
+  </si>
+  <si>
+    <t>7.5,2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家获得的第一个单位，是能力均衡的低级兵种。充当有战斗力的步兵部队。小恶魔也有他们的局限性，他们在面对更为精锐的敌军时可能显得稍显劣势。因此，在战斗中，合理利用他们的数量优势并结合其他兵种的特色将是关键。
+|
+小恶魔的生活并不轻松。他们生来就是地狱中最弱小的存在，身体笨拙、力量有限。但他们也是最单纯的恶魔，永远燃烧着对力量的渴望，因此会自愿成群结队地追随着强大的存在，身先士卒地投入最可怕的战争中。
+</t>
+  </si>
+  <si>
     <t>步兵</t>
   </si>
   <si>
@@ -143,12 +262,31 @@
     <t>1,0.3333,0.03</t>
   </si>
   <si>
+    <t>钱袋20</t>
+  </si>
+  <si>
+    <t>弱小的低级步兵，没有可观的输出能力。他们唯一的优点就是非常便宜，是数量众多的炮灰部队。骸骨士兵主要能力就是以大量的数量吸收火力和拖延时间纠缠阻挡敌人，让敌人无法伤害真正重要的单位。在升级骸骨士兵时会增加每支部队的骸骨士兵人数。
+|
+这些方徨的亡者是地狱中最常见的景象，他们的存在无处不在。 每一具裸露的、走动的骨架都是已经忘却过去迷失自我的死者。这些可悲的存在黑暗魔法的影响下被迫挥动着粗糙的武器进入战场，成为无穷战争中最方便的傀儡炮灰</t>
+  </si>
+  <si>
     <t>独眼恶魔</t>
   </si>
   <si>
     <t>弓箭手</t>
   </si>
   <si>
+    <t>35,25</t>
+  </si>
+  <si>
+    <t>16.5,2.5</t>
+  </si>
+  <si>
+    <t>作为第一个可以被招募的远程兵种，独眼恶魔为玩家的军队提供了可以依赖的，不断的远程火力。他们能准确地瞄准敌人，从而在安全的距离内造成伤害。缺点是自身相较脆弱，需要近战部队的掩护。
+|
+这种特殊的小恶魔那颗巨大的独眼让他们成为了天生的弓箭手。独眼恶魔的眼睛能够看到远超常生物的距离，他们的目光可以穿透黑暗的烟雾，清晰地观察到远处的一切。独眼恶魔以自己的方式在战场上游走。每一次射击，都是对敌人的死亡宣告</t>
+  </si>
+  <si>
     <t>熔炉蛞蝓</t>
   </si>
   <si>
@@ -161,6 +299,12 @@
     <t>aoe兵</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
     <t>处刑者</t>
   </si>
   <si>
@@ -168,6 +312,9 @@
   </si>
   <si>
     <t>-6.4,30</t>
+  </si>
+  <si>
+    <t>18,18</t>
   </si>
   <si>
     <t>教会处刑者</t>
@@ -198,184 +345,19 @@
 攻击设施</t>
   </si>
   <si>
+    <t>不动如山</t>
+  </si>
+  <si>
     <t>黑暗堡垒</t>
   </si>
   <si>
     <t>建筑-黑暗尖塔</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
     <t>据点</t>
   </si>
   <si>
     <t>35,10,4</t>
-  </si>
-  <si>
-    <t>人类城堡</t>
-  </si>
-  <si>
-    <t>建筑-人类大城堡-草稿</t>
-  </si>
-  <si>
-    <t>敌方据点</t>
-  </si>
-  <si>
-    <t>40,15,6</t>
-  </si>
-  <si>
-    <t>reimu/spine</t>
-  </si>
-  <si>
-    <t>reimu</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>赤色杀人魔</t>
-  </si>
-  <si>
-    <t>reisen/spine</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>月战老兵</t>
-  </si>
-  <si>
-    <t>恶魔领主</t>
-  </si>
-  <si>
-    <t>恶魔领主-小人</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>1/0/0/0</t>
-  </si>
-  <si>
-    <t>角色id</t>
-  </si>
-  <si>
-    <t>角色花费</t>
-  </si>
-  <si>
-    <t>角色护甲</t>
-  </si>
-  <si>
-    <t>远程防御</t>
-  </si>
-  <si>
-    <t>魔法防御</t>
-  </si>
-  <si>
-    <t>角色攻击时间</t>
-  </si>
-  <si>
-    <t>角色攻击冷却时间</t>
-  </si>
-  <si>
-    <t>角色索敌范围</t>
-  </si>
-  <si>
-    <t>角色索敌偏移</t>
-  </si>
-  <si>
-    <t>角色攻击距离</t>
-  </si>
-  <si>
-    <t>是否有技能</t>
-  </si>
-  <si>
-    <t>角色移速</t>
-  </si>
-  <si>
-    <t>ai类型</t>
-  </si>
-  <si>
-    <t>投射物id</t>
-  </si>
-  <si>
-    <t>特殊词条（/分割）</t>
-  </si>
-  <si>
-    <t>血液掉落</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>defence</t>
-  </si>
-  <si>
-    <t>defence_far</t>
-  </si>
-  <si>
-    <t>defence_magic</t>
-  </si>
-  <si>
-    <t>attackTime</t>
-  </si>
-  <si>
-    <t>attackWaitTime</t>
-  </si>
-  <si>
-    <t>enemyCheck</t>
-  </si>
-  <si>
-    <t>enemyCheckOffset</t>
-  </si>
-  <si>
-    <t>attackDistance</t>
-  </si>
-  <si>
-    <t>haveSkill</t>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-  </si>
-  <si>
-    <t>aiType</t>
-  </si>
-  <si>
-    <t>missileID</t>
-  </si>
-  <si>
-    <t>specialTag</t>
-  </si>
-  <si>
-    <t>bloodDrop</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string/string</t>
-  </si>
-  <si>
-    <t>15,15</t>
-  </si>
-  <si>
-    <t>7.5,2.5</t>
-  </si>
-  <si>
-    <t>钱袋20</t>
-  </si>
-  <si>
-    <t>35,25</t>
-  </si>
-  <si>
-    <t>16.5,2.5</t>
-  </si>
-  <si>
-    <t>18,18</t>
-  </si>
-  <si>
-    <t>不动如山</t>
   </si>
   <si>
     <r>
@@ -389,16 +371,61 @@
     </r>
   </si>
   <si>
+    <t>人类城堡</t>
+  </si>
+  <si>
+    <t>建筑-人类大城堡-草稿</t>
+  </si>
+  <si>
+    <t>敌方据点</t>
+  </si>
+  <si>
+    <t>40,15,6</t>
+  </si>
+  <si>
+    <t>reimu/spine</t>
+  </si>
+  <si>
+    <t>reimu</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>赤色杀人魔</t>
+  </si>
+  <si>
     <t>8,8</t>
   </si>
   <si>
+    <t>reisen/spine</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>月战老兵</t>
+  </si>
+  <si>
+    <t>恶魔领主</t>
+  </si>
+  <si>
+    <t>恶魔领主-小人</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>1/0/0/0</t>
+  </si>
+  <si>
     <t>7,7</t>
   </si>
   <si>
-    <t>建筑id</t>
-  </si>
-  <si>
-    <t>是否可攻击</t>
+    <t>51000001/51000002</t>
+  </si>
+  <si>
+    <t>1/2</t>
   </si>
   <si>
     <t>卡片ID</t>
@@ -509,6 +536,9 @@
     <t>抛物线运动时长、高度</t>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
     <t>speed</t>
   </si>
   <si>
@@ -696,6 +726,70 @@
   </si>
   <si>
     <t>物理_恶魔领主普攻</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能等级</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
+  </si>
+  <si>
+    <t>技能血液消耗</t>
+  </si>
+  <si>
+    <t>技能金钱消耗</t>
+  </si>
+  <si>
+    <t>技能贴图</t>
+  </si>
+  <si>
+    <t>各个等级描述</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>skillIcon</t>
+  </si>
+  <si>
+    <t>eachLevelDescription</t>
+  </si>
+  <si>
+    <t>漆黑板甲</t>
+  </si>
+  <si>
+    <t>warlord-helmet</t>
+  </si>
+  <si>
+    <t>等级1:&lt;color=red&gt;25%&lt;/color&gt; 物理减伤|
+等级2:&lt;color=red&gt;30%&lt;/color&gt; 物理减伤|
+等级3:额外的&lt;color=red&gt;5%&lt;/color&gt; 攻击加成|</t>
+  </si>
+  <si>
+    <t>夺魂之刃</t>
+  </si>
+  <si>
+    <t>croc-sword</t>
+  </si>
+  <si>
+    <t>等级1:造成伤害&lt;color=red&gt;15 &lt;/color&gt; 的群体攻击，每次攻击给予英雄造成伤害的&lt;color=red&gt;10%&lt;/color&gt; 的治疗|
+等级2:造成伤害&lt;color=red&gt;20&lt;/color&gt; 的群体攻击，每次攻击给予英雄造成伤害的&lt;color=red&gt;15%&lt;/color&gt; 的治疗|
+等级3:在第一次攻击&lt;color=red&gt;0.5&lt;/color&gt; 秒后再造成一次攻击|</t>
   </si>
 </sst>
 </file>
@@ -708,7 +802,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +815,13 @@
       <color rgb="FF333333"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -867,12 +968,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1226,55 +1333,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,97 +1393,112 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1732,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1747,123 +1866,283 @@
     <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="19.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="11.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="11.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="9.66666666666667"/>
+    <col min="24" max="24" width="13.1111111111111" customWidth="1"/>
+    <col min="25" max="25" width="17.1111111111111" customWidth="1"/>
+    <col min="26" max="26" width="32.8425925925926" customWidth="1"/>
+    <col min="27" max="27" width="26.6574074074074" customWidth="1"/>
+    <col min="28" max="28" width="22.537037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:12">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:28">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:28">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:12">
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:28">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:28">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -1871,37 +2150,85 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0.6</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:12">
+      <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>33000001</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="59" customHeight="1" spans="1:28">
       <c r="A5">
         <v>1000002</v>
       </c>
@@ -1909,37 +2236,85 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H5">
         <v>15</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>33000001</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="58" customHeight="1" spans="1:28">
       <c r="A6">
         <v>1000003</v>
       </c>
@@ -1947,37 +2322,85 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>31000001</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>1000005</v>
       </c>
@@ -1985,37 +2408,85 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>15</v>
       </c>
       <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>32000003</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>1000006</v>
       </c>
@@ -2023,37 +2494,85 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
+      <c r="F8" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>0.5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>32000004</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>1000007</v>
       </c>
@@ -2061,37 +2580,85 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>48</v>
+      <c r="F9" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>32000004</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>1000008</v>
       </c>
@@ -2099,37 +2666,85 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>200</v>
       </c>
       <c r="I10">
+        <v>1.25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10">
         <v>10</v>
       </c>
-      <c r="J10">
-        <v>1.25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1.5</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>32000005</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>1000009</v>
       </c>
@@ -2137,37 +2752,85 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
         <v>1</v>
       </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
       <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="1:12">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>31000004</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:28">
       <c r="A12">
         <v>2000001</v>
       </c>
@@ -2175,37 +2838,85 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
       <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>31000001</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>2000002</v>
       </c>
@@ -2213,37 +2924,85 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>0.75</v>
       </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
       <c r="K13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>2000003</v>
       </c>
@@ -2251,37 +3010,85 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>0.5</v>
       </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
       <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>3000001</v>
       </c>
@@ -2289,37 +3096,85 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0.2</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="H15">
         <v>40</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>5</v>
       </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
       <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>0.3835</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>33000002</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1000</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>3000002</v>
       </c>
@@ -2327,37 +3182,85 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>0.2</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H16">
         <v>40</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>5</v>
       </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
       <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>0.3835</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16">
+        <v>40</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>31000002</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1000</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>4000001</v>
       </c>
@@ -2365,34 +3268,82 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
         <v>1</v>
       </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
       <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
+        <v>126</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>33000003</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2405,946 +3356,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
-    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="13.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="17.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="11.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="10.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="22.5555555555556" customWidth="1"/>
-    <col min="16" max="16" width="14.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1000001</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>33000001</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1000002</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>33000001</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1000003</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>31000001</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1000005</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>32000003</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1000006</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>32000004</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1000007</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>32000004</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>1000008</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1.5</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>32000005</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>1000009</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>2.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11">
-        <v>35</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>31000004</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>2000001</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12">
-        <v>35</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>31000001</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>2000002</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
-        <v>2000003</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15">
-        <v>3000001</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>0.3835</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>33000002</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
-        <v>3000002</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>0.3835</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <v>40</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>31000002</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17">
-        <v>4000001</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>31000002</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2000001</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2000002</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2000003</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -3359,82 +3374,82 @@
     <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3442,13 +3457,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3468,13 +3483,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3494,13 +3509,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3521,13 +3536,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3550,172 +3565,172 @@
     <col min="18" max="18" width="21.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:18">
-      <c r="A1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:18">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="3" t="s">
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:18">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>174</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -3723,7 +3738,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -3735,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -3747,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -3771,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3779,7 +3794,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -3791,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3803,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -3827,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3835,7 +3850,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -3847,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3859,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -3883,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3891,7 +3906,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -3903,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3915,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -3939,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3947,7 +3962,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -3971,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -3995,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4003,7 +4018,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -4027,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -4051,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4059,7 +4074,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -4083,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4107,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4115,7 +4130,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -4139,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4163,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4171,7 +4186,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -4195,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -4219,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4227,7 +4242,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4251,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -4275,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4283,7 +4298,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4307,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -4331,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4339,9 +4354,9 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="4">
+        <v>201</v>
+      </c>
+      <c r="C15" s="7">
         <v>41000008</v>
       </c>
       <c r="D15">
@@ -4363,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -4387,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4396,13 +4411,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4419,108 +4434,108 @@
     <col min="10" max="10" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
+      <c r="A4" s="5">
         <v>41000000</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>213</v>
+      <c r="B4" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4552,7 +4567,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4584,7 +4599,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4616,7 +4631,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4648,7 +4663,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4680,10 +4695,10 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C9">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4712,7 +4727,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4744,7 +4759,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4776,7 +4791,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -4802,6 +4817,165 @@
       <c r="J12">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" customWidth="1"/>
+    <col min="5" max="6" width="13.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="69.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="92" customHeight="1" spans="1:8">
+      <c r="A4">
+        <v>51000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" ht="137" customHeight="1" spans="1:8">
+      <c r="A5">
+        <v>51000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="266">
   <si>
     <t>实体id</t>
   </si>
@@ -221,7 +221,7 @@
     <t>恶魔小兵</t>
   </si>
   <si>
-    <t>美术素材——小恶魔（静止图像）</t>
+    <t>1-小恶魔</t>
   </si>
   <si>
     <t>0,18</t>
@@ -252,7 +252,7 @@
     <t>步兵</t>
   </si>
   <si>
-    <t>敌方步兵（草稿）</t>
+    <t>A01农夫</t>
   </si>
   <si>
     <t>敌方步兵
@@ -273,6 +273,9 @@
     <t>独眼恶魔</t>
   </si>
   <si>
+    <t>3-独眼恶魔</t>
+  </si>
+  <si>
     <t>弓箭手</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
     <t>4-熔炉蛞蝓</t>
   </si>
   <si>
-    <t>0,30</t>
-  </si>
-  <si>
     <t>aoe兵</t>
   </si>
   <si>
@@ -308,10 +308,10 @@
     <t>处刑者</t>
   </si>
   <si>
-    <t>B4-处刑者</t>
-  </si>
-  <si>
-    <t>-6.4,30</t>
+    <t>A04-处刑者</t>
+  </si>
+  <si>
+    <t>-6.4,18</t>
   </si>
   <si>
     <t>18,18</t>
@@ -320,6 +320,9 @@
     <t>教会处刑者</t>
   </si>
   <si>
+    <t>C04教会处刑者</t>
+  </si>
+  <si>
     <t>风车巨人</t>
   </si>
   <si>
@@ -330,6 +333,27 @@
   </si>
   <si>
     <t>炮兵</t>
+  </si>
+  <si>
+    <t>7狱火臼炮</t>
+  </si>
+  <si>
+    <t>骷髅兵</t>
+  </si>
+  <si>
+    <t>2-骸骨战士</t>
+  </si>
+  <si>
+    <t>-5,18</t>
+  </si>
+  <si>
+    <t>灾祸巫师</t>
+  </si>
+  <si>
+    <t>5-灾祸巫师</t>
+  </si>
+  <si>
+    <t>25,15</t>
   </si>
   <si>
     <t>箭塔</t>
@@ -476,16 +500,40 @@
     <t>soldierID</t>
   </si>
   <si>
-    <t>恶魔小兵*3</t>
-  </si>
-  <si>
-    <t>旗帜概念（草稿）</t>
-  </si>
-  <si>
-    <t>独眼恶魔*2</t>
-  </si>
-  <si>
-    <t>炮兵*1</t>
+    <t>恶魔小兵*4</t>
+  </si>
+  <si>
+    <t>01小恶魔</t>
+  </si>
+  <si>
+    <t>独眼恶魔*3</t>
+  </si>
+  <si>
+    <t>03独眼恶魔</t>
+  </si>
+  <si>
+    <t>炮兵*2</t>
+  </si>
+  <si>
+    <t>07 狱火臼炮</t>
+  </si>
+  <si>
+    <t>熔炉蛞蝓*3</t>
+  </si>
+  <si>
+    <t>04熔炉蛞蝓</t>
+  </si>
+  <si>
+    <t>处刑者*2</t>
+  </si>
+  <si>
+    <t>A04刽子手</t>
+  </si>
+  <si>
+    <t>02骸骨士兵</t>
+  </si>
+  <si>
+    <t>05灾祸巫师</t>
   </si>
   <si>
     <t>投射物名称</t>
@@ -1851,10 +1899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2254,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -2325,22 +2373,22 @@
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
@@ -2364,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S6">
         <v>35</v>
@@ -2397,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2408,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>89</v>
@@ -2426,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -2500,7 +2548,7 @@
         <v>93</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>94</v>
@@ -2512,7 +2560,7 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -2583,10 +2631,10 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>94</v>
@@ -2598,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="s">
         <v>70</v>
@@ -2666,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>89</v>
@@ -2684,7 +2732,7 @@
         <v>200</v>
       </c>
       <c r="I10">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
@@ -2752,25 +2800,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="s">
         <v>70</v>
@@ -2794,10 +2842,10 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S11">
         <v>35</v>
@@ -2830,33 +2878,33 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" ht="32" customHeight="1" spans="1:28">
+    <row r="12" spans="1:28">
       <c r="A12">
-        <v>2000001</v>
+        <v>1000010</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
         <v>103</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="s">
         <v>70</v>
@@ -2877,31 +2925,31 @@
         <v>0.5</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S12">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>31000001</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>105</v>
+        <v>33000001</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2918,10 +2966,10 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13">
-        <v>2000002</v>
+        <v>1000011</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
@@ -2930,22 +2978,22 @@
         <v>107</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2960,34 +3008,34 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>110</v>
+        <v>33000001</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -3002,288 +3050,30 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="A14">
-        <v>2000003</v>
-      </c>
-      <c r="B14">
+    <row r="17" ht="32" customHeight="1" spans="1:28">
+      <c r="A17">
+        <v>2000001</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9" t="s">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
         <v>110</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15">
-        <v>3000001</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>0.3835</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" t="s">
-        <v>90</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>5</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>33000002</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>1000</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16">
-        <v>3000002</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16">
-        <v>0.2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16">
-        <v>40</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="O16">
-        <v>0.3835</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16">
-        <v>40</v>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>31000002</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1000</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17">
-        <v>4000001</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3292,7 +3082,7 @@
         <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3307,42 +3097,472 @@
         <v>0.5</v>
       </c>
       <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17">
+        <v>35</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>31000001</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18">
+        <v>2000002</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>0.75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19">
+        <v>2000003</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20">
+        <v>3000001</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>0.3835</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>33000002</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21">
+        <v>3000002</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>0.3835</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21">
+        <v>40</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>31000002</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1000</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22">
+        <v>4000001</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
         <v>1.5</v>
       </c>
-      <c r="Q17" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="Q22" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" t="s">
         <v>90</v>
       </c>
-      <c r="S17">
+      <c r="S22">
         <v>3</v>
       </c>
-      <c r="T17" t="b">
+      <c r="T22" t="b">
         <v>1</v>
       </c>
-      <c r="U17">
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>33000003</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>1000</v>
       </c>
-      <c r="Z17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="Z22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3356,13 +3576,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
@@ -3376,54 +3596,54 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:8">
@@ -3457,13 +3677,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3483,13 +3703,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3509,13 +3729,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3527,7 +3747,137 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1000004</v>
+        <v>1000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>21000004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>21000005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>21000006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>21000007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>21000008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1000011</v>
       </c>
     </row>
   </sheetData>
@@ -3570,55 +3920,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:18">
@@ -3629,52 +3979,52 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:18">
@@ -3697,7 +4047,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
@@ -3730,7 +4080,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -3738,7 +4088,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -3750,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -3786,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3794,7 +4144,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -3806,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3842,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3850,7 +4200,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -3862,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3898,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3906,7 +4256,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -3918,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3954,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3962,7 +4312,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -3986,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -4010,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4018,7 +4368,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -4042,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -4066,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4074,7 +4424,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -4098,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4130,7 +4480,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -4154,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4178,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4186,7 +4536,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -4234,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4242,7 +4592,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4298,7 +4648,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4354,7 +4704,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C15" s="7">
         <v>41000008</v>
@@ -4436,66 +4786,66 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -4535,7 +4885,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4567,7 +4917,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4599,7 +4949,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4631,7 +4981,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4663,7 +5013,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4695,7 +5045,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4727,7 +5077,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4759,7 +5109,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4791,7 +5141,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -4846,54 +5196,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -4927,7 +5277,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4942,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -4953,7 +5303,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4968,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
     <t>7,7</t>
   </si>
   <si>
-    <t>51000001/51000002</t>
+    <t>51000002/51000001</t>
   </si>
   <si>
     <t>1/2</t>
@@ -1901,8 +1901,8 @@
   <sheetPr/>
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -2302,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -3578,7 +3578,7 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="272">
   <si>
     <t>实体id</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>40,15,6</t>
+  </si>
+  <si>
+    <t>要塞-人类</t>
+  </si>
+  <si>
+    <t>建筑-要塞A(电脑）</t>
+  </si>
+  <si>
+    <t>敌方要塞</t>
+  </si>
+  <si>
+    <t>要塞-恶魔</t>
+  </si>
+  <si>
+    <t>建筑-要塞A(被占领）</t>
+  </si>
+  <si>
+    <t>我方要塞</t>
   </si>
   <si>
     <t>reimu/spine</t>
@@ -1899,10 +1917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3248,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="s">
         <v>122</v>
@@ -3310,10 +3328,10 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20">
-        <v>3000001</v>
+        <v>2000004</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
@@ -3322,67 +3340,67 @@
         <v>124</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
         <v>125</v>
       </c>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
       <c r="H20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3835</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s">
         <v>90</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="b">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>33000002</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="Y20">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3396,79 +3414,79 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21">
-        <v>3000002</v>
+        <v>2000005</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
       <c r="H21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3835</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
         <v>90</v>
       </c>
       <c r="S21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>31000002</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="Y21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3482,55 +3500,55 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22">
-        <v>4000001</v>
+        <v>3000001</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>132</v>
       </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H22">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0.3835</v>
       </c>
       <c r="P22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R22" t="s">
         <v>90</v>
@@ -3539,16 +3557,16 @@
         <v>3</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>33000003</v>
+        <v>33000002</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3556,13 +3574,185 @@
       <c r="Y22">
         <v>1000</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23">
+        <v>3000002</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
         <v>136</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>0.3835</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23">
+        <v>40</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>31000002</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24">
+        <v>4000001</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>137</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>141</v>
+      </c>
+      <c r="R24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>33000003</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB24" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3596,54 +3786,54 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:8">
@@ -3677,13 +3867,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3703,13 +3893,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3729,13 +3919,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3755,13 +3945,13 @@
         <v>21000004</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -3781,13 +3971,13 @@
         <v>21000005</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3807,10 +3997,10 @@
         <v>21000006</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3839,7 +4029,7 @@
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -3865,7 +4055,7 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3920,55 +4110,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:18">
@@ -3979,52 +4169,52 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:18">
@@ -4047,7 +4237,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
@@ -4080,7 +4270,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -4088,7 +4278,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -4100,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -4136,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4144,7 +4334,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -4156,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -4192,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4200,7 +4390,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -4212,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -4248,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4256,7 +4446,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -4268,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -4304,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4312,7 +4502,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -4336,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -4360,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4368,7 +4558,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -4392,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -4416,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4424,7 +4614,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -4448,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4480,7 +4670,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -4504,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4528,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4536,7 +4726,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -4584,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4592,7 +4782,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -4648,7 +4838,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -4704,7 +4894,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C15" s="7">
         <v>41000008</v>
@@ -4786,66 +4976,66 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -4885,7 +5075,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4917,7 +5107,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4949,7 +5139,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4981,7 +5171,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5013,7 +5203,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5045,7 +5235,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -5077,7 +5267,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -5109,7 +5299,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5141,7 +5331,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -5196,54 +5386,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -5277,7 +5467,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5292,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -5303,7 +5493,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5318,10 +5508,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="275">
   <si>
     <t>实体id</t>
   </si>
@@ -262,9 +262,6 @@
     <t>1,0.3333,0.03</t>
   </si>
   <si>
-    <t>钱袋20</t>
-  </si>
-  <si>
     <t>弱小的低级步兵，没有可观的输出能力。他们唯一的优点就是非常便宜，是数量众多的炮灰部队。骸骨士兵主要能力就是以大量的数量吸收火力和拖延时间纠缠阻挡敌人，让敌人无法伤害真正重要的单位。在升级骸骨士兵时会增加每支部队的骸骨士兵人数。
 |
 这些方徨的亡者是地狱中最常见的景象，他们的存在无处不在。 每一具裸露的、走动的骨架都是已经忘却过去迷失自我的死者。这些可悲的存在黑暗魔法的影响下被迫挥动着粗糙的武器进入战场，成为无穷战争中最方便的傀儡炮灰</t>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>18,18</t>
+  </si>
+  <si>
+    <t>钱袋20</t>
   </si>
   <si>
     <t>教会处刑者</t>
@@ -674,6 +674,12 @@
     <t>1.5,30</t>
   </si>
   <si>
+    <t>灾祸巫师的箭（初始）</t>
+  </si>
+  <si>
+    <t>灾祸巫师的箭（跳弹）</t>
+  </si>
+  <si>
     <t>范围伤害1</t>
   </si>
   <si>
@@ -792,6 +798,9 @@
   </si>
   <si>
     <t>物理_恶魔领主普攻</t>
+  </si>
+  <si>
+    <t>魔法伤害_5</t>
   </si>
   <si>
     <t>技能id</t>
@@ -1919,8 +1928,8 @@
   <sheetPr/>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2364,8 +2373,8 @@
       <c r="W5">
         <v>33000001</v>
       </c>
-      <c r="X5" s="9" t="s">
-        <v>79</v>
+      <c r="X5" s="9">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -2377,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:28">
@@ -2388,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -2400,7 +2409,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -2430,10 +2439,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
         <v>84</v>
-      </c>
-      <c r="R6" t="s">
-        <v>85</v>
       </c>
       <c r="S6">
         <v>35</v>
@@ -2463,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2474,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -2486,7 +2495,7 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -2519,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -2549,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2560,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -2602,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -2623,7 +2632,7 @@
         <v>32000004</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="Y8">
         <v>6</v>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2655,10 +2664,10 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -2688,10 +2697,10 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -2721,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2744,7 +2753,7 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -2774,10 +2783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -2807,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2860,10 +2869,10 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
         <v>84</v>
-      </c>
-      <c r="R11" t="s">
-        <v>85</v>
       </c>
       <c r="S11">
         <v>35</v>
@@ -2893,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2979,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3035,7 +3044,7 @@
         <v>108</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S13">
         <v>30</v>
@@ -3050,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>33000001</v>
+        <v>31000005</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3065,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="32" customHeight="1" spans="1:28">
@@ -3118,10 +3127,10 @@
         <v>0.5</v>
       </c>
       <c r="Q17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" t="s">
         <v>84</v>
-      </c>
-      <c r="R17" t="s">
-        <v>85</v>
       </c>
       <c r="S17">
         <v>35</v>
@@ -3151,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -3171,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>116</v>
@@ -3204,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3237,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -3257,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>121</v>
@@ -3290,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3323,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -3343,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>125</v>
@@ -3376,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3409,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3429,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>128</v>
@@ -3462,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3495,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3551,7 +3560,7 @@
         <v>133</v>
       </c>
       <c r="R22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -3581,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3634,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S23">
         <v>40</v>
@@ -3667,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3723,7 +3732,7 @@
         <v>141</v>
       </c>
       <c r="R24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3753,7 +3762,7 @@
         <v>143</v>
       </c>
       <c r="AB24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3778,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3896,7 +3905,7 @@
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>163</v>
@@ -3948,7 +3957,7 @@
         <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>167</v>
@@ -3974,7 +3983,7 @@
         <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>169</v>
@@ -4079,10 +4088,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4302,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -4358,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -4414,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -4470,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -4499,22 +4508,22 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>32000001</v>
+        <v>31000005</v>
       </c>
       <c r="B8" t="s">
         <v>212</v>
       </c>
       <c r="C8">
-        <v>41000001</v>
+        <v>41000009</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -4523,16 +4532,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>0</v>
+        <v>31000006</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4541,36 +4550,36 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>32000002</v>
+        <v>31000006</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9">
-        <v>41000002</v>
+        <v>41000009</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -4579,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -4597,27 +4606,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>32000003</v>
+        <v>32000001</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10">
-        <v>41000003</v>
+        <v>41000001</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4638,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4653,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4662,18 +4671,18 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>32000004</v>
+        <v>32000002</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>41000004</v>
+        <v>41000002</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4694,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4709,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -4718,18 +4727,18 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>32000005</v>
+        <v>32000003</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12">
-        <v>41000005</v>
+        <v>41000003</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4750,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -4765,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -4774,18 +4783,18 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>33000001</v>
+        <v>32000004</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13">
-        <v>41000001</v>
+        <v>41000004</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4803,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -4821,27 +4830,27 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>33000002</v>
+        <v>32000005</v>
       </c>
       <c r="B14" t="s">
         <v>222</v>
       </c>
       <c r="C14">
-        <v>41000006</v>
+        <v>41000005</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4859,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -4877,27 +4886,27 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>33000003</v>
+        <v>33000001</v>
       </c>
       <c r="B15" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="7">
-        <v>41000008</v>
+      <c r="C15">
+        <v>41000001</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4918,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -4942,7 +4951,119 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>33000002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16">
+        <v>41000006</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>33000003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="7">
+        <v>41000008</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4954,10 +5075,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4976,66 +5097,66 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -5075,7 +5196,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5107,7 +5228,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5139,7 +5260,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5171,7 +5292,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5203,7 +5324,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5235,7 +5356,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -5267,7 +5388,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -5299,7 +5420,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5331,7 +5452,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -5355,6 +5476,38 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>41000009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -5370,7 +5523,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -5386,42 +5539,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>157</v>
@@ -5430,10 +5583,10 @@
         <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -5467,7 +5620,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5482,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -5493,7 +5646,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5508,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -1928,8 +1928,8 @@
   <sheetPr/>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="453">
   <si>
     <t>实体id</t>
   </si>
@@ -311,10 +311,13 @@
     <t>-6.4,18</t>
   </si>
   <si>
+    <t>敌方aoe兵</t>
+  </si>
+  <si>
     <t>18,18</t>
   </si>
   <si>
-    <t>钱袋20</t>
+    <t>钱袋10</t>
   </si>
   <si>
     <t>教会处刑者</t>
@@ -323,6 +326,9 @@
     <t>C04教会处刑者</t>
   </si>
   <si>
+    <t>敌方精英aoe兵</t>
+  </si>
+  <si>
     <t>风车巨人</t>
   </si>
   <si>
@@ -332,6 +338,12 @@
     <t>0,15</t>
   </si>
   <si>
+    <t>敌方精英aoe巨人</t>
+  </si>
+  <si>
+    <t>无血者/不动如山</t>
+  </si>
+  <si>
     <t>炮兵</t>
   </si>
   <si>
@@ -347,13 +359,433 @@
     <t>-5,18</t>
   </si>
   <si>
+    <t>炮灰</t>
+  </si>
+  <si>
+    <t>无血者</t>
+  </si>
+  <si>
     <t>灾祸巫师</t>
   </si>
   <si>
     <t>5-灾祸巫师</t>
   </si>
   <si>
+    <t>后排debuffer</t>
+  </si>
+  <si>
     <t>25,15</t>
+  </si>
+  <si>
+    <t>地狱军团</t>
+  </si>
+  <si>
+    <t>6地狱军团Legion of the Hell</t>
+  </si>
+  <si>
+    <t>前排坦克</t>
+  </si>
+  <si>
+    <t>鬼魂</t>
+  </si>
+  <si>
+    <t>8-鬼魂</t>
+  </si>
+  <si>
+    <t>召唤物炮灰</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>[WIP]鲜血神像</t>
+  </si>
+  <si>
+    <t>9-鲜血神像</t>
+  </si>
+  <si>
+    <t>治疗者</t>
+  </si>
+  <si>
+    <t>石像鬼</t>
+  </si>
+  <si>
+    <t>10-石像鬼</t>
+  </si>
+  <si>
+    <t>基础魔法步兵</t>
+  </si>
+  <si>
+    <t>死神化身</t>
+  </si>
+  <si>
+    <t>11死神化身</t>
+  </si>
+  <si>
+    <t>混合伤害巨兽</t>
+  </si>
+  <si>
+    <t>[WIP]梦魇</t>
+  </si>
+  <si>
+    <t>12梦魇</t>
+  </si>
+  <si>
+    <t>跳跃刺客</t>
+  </si>
+  <si>
+    <t>死灵法师</t>
+  </si>
+  <si>
+    <t>13-死灵法师</t>
+  </si>
+  <si>
+    <t>召唤师</t>
+  </si>
+  <si>
+    <t>无头骑士</t>
+  </si>
+  <si>
+    <t>14无头骑士</t>
+  </si>
+  <si>
+    <t>地狱骑士</t>
+  </si>
+  <si>
+    <t>15地狱骑士</t>
+  </si>
+  <si>
+    <t>精英步兵</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t>16-吸血鬼</t>
+  </si>
+  <si>
+    <t>血牛步兵</t>
+  </si>
+  <si>
+    <t>火山巨人</t>
+  </si>
+  <si>
+    <t>17-火焰巨人</t>
+  </si>
+  <si>
+    <t>Aoe巨兽</t>
+  </si>
+  <si>
+    <t>地狱军团铳枪手</t>
+  </si>
+  <si>
+    <t>18地狱军团铳枪手</t>
+  </si>
+  <si>
+    <t>魔法射手</t>
+  </si>
+  <si>
+    <t>黑曜城堡</t>
+  </si>
+  <si>
+    <t>19-黑曜城堡</t>
+  </si>
+  <si>
+    <t>巨兽炮兵</t>
+  </si>
+  <si>
+    <t>恶魔屠夫</t>
+  </si>
+  <si>
+    <t>20-恶魔屠夫</t>
+  </si>
+  <si>
+    <t>低级坦克</t>
+  </si>
+  <si>
+    <t>不动如山</t>
+  </si>
+  <si>
+    <t>封地步兵</t>
+  </si>
+  <si>
+    <t>A02封地步兵</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>A03猎人</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>钱袋5</t>
+  </si>
+  <si>
+    <t>见习修女</t>
+  </si>
+  <si>
+    <t>A05见习修女</t>
+  </si>
+  <si>
+    <t>治疗祝福buffer</t>
+  </si>
+  <si>
+    <t>游侠骑士</t>
+  </si>
+  <si>
+    <t>A06游侠骑士</t>
+  </si>
+  <si>
+    <t>树人</t>
+  </si>
+  <si>
+    <t>A07-2树人</t>
+  </si>
+  <si>
+    <t>血牛召唤物</t>
+  </si>
+  <si>
+    <t>荒野法师</t>
+  </si>
+  <si>
+    <t>A07荒野法师</t>
+  </si>
+  <si>
+    <t>矮人隧道工</t>
+  </si>
+  <si>
+    <t>B01矮人隧道工</t>
+  </si>
+  <si>
+    <t>中级步兵</t>
+  </si>
+  <si>
+    <t>矮人战士</t>
+  </si>
+  <si>
+    <t>B02矮人战士</t>
+  </si>
+  <si>
+    <t>中级步兵+</t>
+  </si>
+  <si>
+    <t>矮人飞斧手</t>
+  </si>
+  <si>
+    <t>B03矮人飞斧手</t>
+  </si>
+  <si>
+    <t>步兵伴随射手</t>
+  </si>
+  <si>
+    <t>顽固投石机</t>
+  </si>
+  <si>
+    <t>B04顽固投石机</t>
+  </si>
+  <si>
+    <t>远程炮兵</t>
+  </si>
+  <si>
+    <t>矮人掷弹兵</t>
+  </si>
+  <si>
+    <t>B05矮人掷弹兵</t>
+  </si>
+  <si>
+    <t>步兵伴随炮兵</t>
+  </si>
+  <si>
+    <t>[WIP]酿酒大师</t>
+  </si>
+  <si>
+    <t>B06酿酒大师</t>
+  </si>
+  <si>
+    <t>步兵伴随buffer</t>
+  </si>
+  <si>
+    <t>猎巫人</t>
+  </si>
+  <si>
+    <t>B07猎巫人</t>
+  </si>
+  <si>
+    <t>敌法</t>
+  </si>
+  <si>
+    <t>放逐/钱袋30</t>
+  </si>
+  <si>
+    <t>符文魔像</t>
+  </si>
+  <si>
+    <t>B08符文魔像</t>
+  </si>
+  <si>
+    <t>AoE巨兽</t>
+  </si>
+  <si>
+    <t>王国卫队</t>
+  </si>
+  <si>
+    <t>C01王国卫队</t>
+  </si>
+  <si>
+    <t>高级步兵</t>
+  </si>
+  <si>
+    <t>皇家骑士</t>
+  </si>
+  <si>
+    <t>C02皇家骑士</t>
+  </si>
+  <si>
+    <t>高级步兵+</t>
+  </si>
+  <si>
+    <t>铁甲火枪手</t>
+  </si>
+  <si>
+    <t>C03铁甲火枪手</t>
+  </si>
+  <si>
+    <t>后排射手</t>
+  </si>
+  <si>
+    <t>精灵神射手</t>
+  </si>
+  <si>
+    <t>C05精灵神射手</t>
+  </si>
+  <si>
+    <t>魔法后排射手</t>
+  </si>
+  <si>
+    <t>圣堂传教士</t>
+  </si>
+  <si>
+    <t>C06圣堂传教士</t>
+  </si>
+  <si>
+    <t>敌法精英</t>
+  </si>
+  <si>
+    <t>不动如山/放逐/钱袋30</t>
+  </si>
+  <si>
+    <t>[WIP]白衣主教</t>
+  </si>
+  <si>
+    <t>C07白衣主教</t>
+  </si>
+  <si>
+    <t>healer</t>
+  </si>
+  <si>
+    <t>学院法师</t>
+  </si>
+  <si>
+    <t>C08学院法师</t>
+  </si>
+  <si>
+    <t>魔法炮兵</t>
+  </si>
+  <si>
+    <t>装甲列车</t>
+  </si>
+  <si>
+    <t>C09装甲列车</t>
+  </si>
+  <si>
+    <t>混合炮兵</t>
+  </si>
+  <si>
+    <t>钢雨迫击炮</t>
+  </si>
+  <si>
+    <t>C10钢雨迫击炮</t>
+  </si>
+  <si>
+    <t>广域炮兵</t>
+  </si>
+  <si>
+    <t>英灵战士</t>
+  </si>
+  <si>
+    <t>D01英灵战士</t>
+  </si>
+  <si>
+    <t>灵体战士</t>
+  </si>
+  <si>
+    <t>英灵标枪手</t>
+  </si>
+  <si>
+    <t>D02英灵战士标枪手</t>
+  </si>
+  <si>
+    <t>灵体长手战士</t>
+  </si>
+  <si>
+    <t>英灵喷火者</t>
+  </si>
+  <si>
+    <t>D03英灵战士希腊火</t>
+  </si>
+  <si>
+    <t>灵体Aoe战士</t>
+  </si>
+  <si>
+    <t>征战天使</t>
+  </si>
+  <si>
+    <t>D04征战天使</t>
+  </si>
+  <si>
+    <t>魔法血牛战士</t>
+  </si>
+  <si>
+    <t>咏唱天使</t>
+  </si>
+  <si>
+    <t>D05咏唱天使</t>
+  </si>
+  <si>
+    <t>全能坦克战士</t>
+  </si>
+  <si>
+    <t>净化引擎</t>
+  </si>
+  <si>
+    <t>D06净化引擎</t>
+  </si>
+  <si>
+    <t>驱魔光环</t>
+  </si>
+  <si>
+    <t>女武神</t>
+  </si>
+  <si>
+    <t>D07女武神</t>
+  </si>
+  <si>
+    <t>快速刺客</t>
+  </si>
+  <si>
+    <t>不动如山/放逐</t>
+  </si>
+  <si>
+    <t>大天使</t>
+  </si>
+  <si>
+    <t>D08大天使</t>
+  </si>
+  <si>
+    <t>光环巨兽</t>
   </si>
   <si>
     <t>箭塔</t>
@@ -367,9 +799,6 @@
   <si>
     <t>箭塔
 攻击设施</t>
-  </si>
-  <si>
-    <t>不动如山</t>
   </si>
   <si>
     <t>黑暗堡垒</t>
@@ -518,42 +947,123 @@
     <t>soldierID</t>
   </si>
   <si>
-    <t>恶魔小兵*4</t>
+    <t>Imps*4</t>
   </si>
   <si>
     <t>01小恶魔</t>
   </si>
   <si>
-    <t>独眼恶魔*3</t>
+    <t>Cyclopean Imps*3</t>
   </si>
   <si>
     <t>03独眼恶魔</t>
   </si>
   <si>
-    <t>炮兵*2</t>
+    <t>Hellfire Mortar*2</t>
   </si>
   <si>
     <t>07 狱火臼炮</t>
   </si>
   <si>
-    <t>熔炉蛞蝓*3</t>
+    <t>Furnance Slugs*3</t>
   </si>
   <si>
     <t>04熔炉蛞蝓</t>
   </si>
   <si>
-    <t>处刑者*2</t>
+    <t>Executioner*2</t>
   </si>
   <si>
     <t>A04刽子手</t>
   </si>
   <si>
+    <t>Demon Lord</t>
+  </si>
+  <si>
+    <t>Skeleton*5</t>
+  </si>
+  <si>
     <t>02骸骨士兵</t>
   </si>
   <si>
+    <t>Calamity Mage*2</t>
+  </si>
+  <si>
     <t>05灾祸巫师</t>
   </si>
   <si>
+    <t>Hell Ligeionnare*3</t>
+  </si>
+  <si>
+    <t>06 地狱军团</t>
+  </si>
+  <si>
+    <t>Phantom*5</t>
+  </si>
+  <si>
+    <t>08鬼魂</t>
+  </si>
+  <si>
+    <t>Blood Efigy*1</t>
+  </si>
+  <si>
+    <t>09鲜血神像</t>
+  </si>
+  <si>
+    <t>Gargoyle+4</t>
+  </si>
+  <si>
+    <t>10石像鬼</t>
+  </si>
+  <si>
+    <t>Grim Avatar*1</t>
+  </si>
+  <si>
+    <t>Nightmare*5</t>
+  </si>
+  <si>
+    <t>Necromancer*1</t>
+  </si>
+  <si>
+    <t>13死灵法师</t>
+  </si>
+  <si>
+    <t>Headless Knight*3</t>
+  </si>
+  <si>
+    <t>Hell Knight*3</t>
+  </si>
+  <si>
+    <t>Vampire*3</t>
+  </si>
+  <si>
+    <t>16吸血鬼</t>
+  </si>
+  <si>
+    <t>Volcanic Giant*1</t>
+  </si>
+  <si>
+    <t>17火山巨人</t>
+  </si>
+  <si>
+    <t>Ligeionnare Musketeers*3</t>
+  </si>
+  <si>
+    <t>Castle Obsidian*1</t>
+  </si>
+  <si>
+    <t>19黑曜城堡</t>
+  </si>
+  <si>
+    <t>Devil Butcher*2</t>
+  </si>
+  <si>
+    <t>20恶魔屠夫</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>投射物名称</t>
   </si>
   <si>
@@ -674,12 +1184,6 @@
     <t>1.5,30</t>
   </si>
   <si>
-    <t>灾祸巫师的箭（初始）</t>
-  </si>
-  <si>
-    <t>灾祸巫师的箭（跳弹）</t>
-  </si>
-  <si>
     <t>范围伤害1</t>
   </si>
   <si>
@@ -716,6 +1220,30 @@
     <t>单体伤害_恶魔领主</t>
   </si>
   <si>
+    <t>单体伤害_远程_丢骷髅头</t>
+  </si>
+  <si>
+    <t>1.5,5</t>
+  </si>
+  <si>
+    <t>单体伤害_近战_地狱军团</t>
+  </si>
+  <si>
+    <t>炮灰近战挠痒痒</t>
+  </si>
+  <si>
+    <t>石像鬼攻击</t>
+  </si>
+  <si>
+    <t>近战-小</t>
+  </si>
+  <si>
+    <t>近战-中</t>
+  </si>
+  <si>
+    <t>近战-大</t>
+  </si>
+  <si>
     <t>伤害id</t>
   </si>
   <si>
@@ -800,7 +1328,13 @@
     <t>物理_恶魔领主普攻</t>
   </si>
   <si>
-    <t>魔法伤害_5</t>
+    <t>物理_远程_弓箭</t>
+  </si>
+  <si>
+    <t>物理_远程_骷髅投射物</t>
+  </si>
+  <si>
+    <t>物理_近战_地狱军团砍击</t>
   </si>
   <si>
     <t>技能id</t>
@@ -1043,7 +1577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,7 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,18 +1665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1942,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1438,16 +1966,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1456,89 +1984,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1560,10 +2088,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1926,26 +2457,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="19.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.3981481481481" customWidth="1"/>
+    <col min="5" max="6" width="10.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="9.99074074074074" customWidth="1"/>
+    <col min="11" max="11" width="8.40740740740741" customWidth="1"/>
+    <col min="12" max="12" width="9.2037037037037" customWidth="1"/>
+    <col min="13" max="13" width="9.36111111111111" customWidth="1"/>
+    <col min="14" max="14" width="8.72222222222222" customWidth="1"/>
+    <col min="15" max="15" width="13.6481481481481" customWidth="1"/>
     <col min="16" max="16" width="13.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="13.3240740740741" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="14.7777777777778" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
@@ -1959,261 +2489,261 @@
     <col min="28" max="28" width="22.537037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:28">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:28">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:28">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:28">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:28">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:28">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2240,7 +2770,7 @@
         <v>69</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>1.5</v>
@@ -2264,7 +2794,7 @@
         <v>0.5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="s">
         <v>72</v>
@@ -2291,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2303,7 +2833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="59" customHeight="1" spans="1:28">
+    <row r="5" ht="59.05" customHeight="1" spans="1:28">
       <c r="A5">
         <v>1000002</v>
       </c>
@@ -2326,7 +2856,7 @@
         <v>77</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>1.5</v>
@@ -2350,7 +2880,7 @@
         <v>0.5</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" t="s">
         <v>72</v>
@@ -2373,11 +2903,11 @@
       <c r="W5">
         <v>33000001</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2385,7 +2915,7 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2445,13 +2975,13 @@
         <v>84</v>
       </c>
       <c r="S6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -2463,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2498,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>1.5</v>
@@ -2522,7 +3052,7 @@
         <v>0.5</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" t="s">
         <v>72</v>
@@ -2531,7 +3061,7 @@
         <v>89</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -2549,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2577,11 +3107,11 @@
       <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -2611,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s">
         <v>89</v>
@@ -2623,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2631,11 +3161,11 @@
       <c r="W8">
         <v>32000004</v>
       </c>
-      <c r="X8" s="9" t="s">
-        <v>95</v>
+      <c r="X8" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2655,19 +3185,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -2694,10 +3224,10 @@
         <v>0.5</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R9" t="s">
         <v>89</v>
@@ -2709,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2717,11 +3247,11 @@
       <c r="W9">
         <v>32000004</v>
       </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="X9" t="s">
+        <v>96</v>
       </c>
       <c r="Y9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2741,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I10">
         <v>1.5</v>
@@ -2777,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="P10">
         <v>3.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R10" t="s">
         <v>89</v>
@@ -2795,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2803,11 +3333,11 @@
       <c r="W10">
         <v>32000005</v>
       </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="X10" t="s">
+        <v>104</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2827,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -2839,10 +3369,10 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>1.5</v>
@@ -2854,7 +3384,7 @@
         <v>71</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2866,7 +3396,7 @@
         <v>0.5</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="s">
         <v>83</v>
@@ -2875,13 +3405,13 @@
         <v>84</v>
       </c>
       <c r="S11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -2889,8 +3419,8 @@
       <c r="W11">
         <v>31000004</v>
       </c>
-      <c r="X11">
-        <v>0</v>
+      <c r="X11" t="s">
+        <v>104</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2913,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>105</v>
+      <c r="F12" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>1.5</v>
@@ -2952,7 +3482,7 @@
         <v>0.5</v>
       </c>
       <c r="P12">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q12" t="s">
         <v>72</v>
@@ -2967,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>33000001</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
+        <v>33000006</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2999,22 +3529,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>105</v>
+      <c r="F13" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>1.5</v>
@@ -3041,7 +3571,7 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s">
         <v>84</v>
@@ -3053,19 +3583,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>31000005</v>
+        <v>33000004</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3077,42 +3607,300 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" ht="32" customHeight="1" spans="1:28">
+    <row r="14" spans="1:28">
+      <c r="A14">
+        <v>1000012</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>4.9</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>33000005</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15">
+        <v>1000013</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>5.7</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>33000006</v>
+      </c>
+      <c r="X15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16">
+        <v>1000014</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16">
+        <v>20</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>4.8</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>33000004</v>
+      </c>
+      <c r="X16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
-        <v>2000001</v>
+        <v>1000015</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3124,31 +3912,31 @@
         <v>0.5</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S17">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>31000001</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>113</v>
+        <v>33000007</v>
+      </c>
+      <c r="X17" t="s">
+        <v>111</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3165,79 +3953,79 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18">
-        <v>2000002</v>
+        <v>1000016</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I18">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R18" t="s">
         <v>89</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>118</v>
+        <v>32000005</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3251,34 +4039,34 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19">
-        <v>2000003</v>
+        <v>1000017</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>1.5</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -3293,34 +4081,34 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
         <v>89</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" t="b">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>118</v>
+        <v>31000004</v>
+      </c>
+      <c r="X19" t="s">
+        <v>111</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3337,34 +4125,34 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20">
-        <v>2000004</v>
+        <v>1000018</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>1.5</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -3379,34 +4167,34 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R20" t="s">
         <v>89</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T20" t="b">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>118</v>
+        <v>33000001</v>
+      </c>
+      <c r="X20" t="s">
+        <v>111</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3423,34 +4211,34 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21">
-        <v>2000005</v>
+        <v>1000019</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>1.5</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -3465,34 +4253,34 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q21" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s">
         <v>89</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>118</v>
+        <v>33000001</v>
+      </c>
+      <c r="X21" t="s">
+        <v>111</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3509,31 +4297,31 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22">
-        <v>3000001</v>
+        <v>1000020</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>131</v>
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
@@ -3542,22 +4330,22 @@
         <v>71</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3835</v>
+        <v>0.5</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s">
         <v>89</v>
@@ -3569,19 +4357,19 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>33000002</v>
+        <v>33000001</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3595,31 +4383,31 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23">
-        <v>3000002</v>
+        <v>1000021</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>131</v>
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
@@ -3628,19 +4416,19 @@
         <v>71</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3835</v>
+        <v>0.5</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" t="s">
         <v>83</v>
@@ -3649,25 +4437,25 @@
         <v>89</v>
       </c>
       <c r="S23">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="T23" t="b">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>31000002</v>
+        <v>33000001</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3681,37 +4469,37 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24">
-        <v>4000001</v>
+        <v>1000022</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>139</v>
+      <c r="G24" t="s">
+        <v>148</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="s">
         <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3726,42 +4514,3654 @@
         <v>0.5</v>
       </c>
       <c r="P24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="R24" t="s">
         <v>89</v>
       </c>
       <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>33000001</v>
+      </c>
+      <c r="X24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25">
+        <v>1000023</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" t="s">
+        <v>89</v>
+      </c>
+      <c r="S25">
+        <v>27</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>33000001</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26">
+        <v>1000024</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26">
+        <v>325</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
         <v>3</v>
       </c>
-      <c r="T24" t="b">
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26">
+        <v>33</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26">
         <v>1</v>
       </c>
-      <c r="U24">
+      <c r="W26">
+        <v>33000001</v>
+      </c>
+      <c r="X26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" s="9" customFormat="1" spans="1:28">
+      <c r="A27">
+        <v>1000025</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="9">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>1.5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" s="9">
         <v>3</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>5</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>33000001</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28">
+        <v>1000026</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>1.5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>33000001</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29">
+        <v>1000027</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>1.5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>5.5</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>33000001</v>
+      </c>
+      <c r="X29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30">
+        <v>1000028</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>1.5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30">
+        <v>25</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>5.2</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>33000001</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31">
+        <v>1000029</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>1.5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0.6</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>72</v>
+      </c>
+      <c r="R31" t="s">
+        <v>89</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>5.3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>33000001</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32">
+        <v>1000030</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>1.5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>4.5</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>33000001</v>
+      </c>
+      <c r="X32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33">
+        <v>1000031</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>1.5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0.5</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33">
+        <v>26</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>4.5</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>33000001</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34">
+        <v>1000032</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34">
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>1.5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s">
+        <v>89</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>4.5</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>33000001</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35">
+        <v>1000033</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>1.5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.7</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" t="s">
+        <v>89</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>4.5</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>33000001</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36">
+        <v>1000034</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36">
+        <v>24</v>
+      </c>
+      <c r="I36">
+        <v>1.5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36">
+        <v>0.8</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" t="s">
+        <v>89</v>
+      </c>
+      <c r="S36">
+        <v>9</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>4.5</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>33000001</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37">
+        <v>1000035</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>1.5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" t="s">
+        <v>89</v>
+      </c>
+      <c r="S37">
+        <v>28</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>33000001</v>
+      </c>
+      <c r="X37" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38">
+        <v>1000036</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>1.5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>1.8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>83</v>
+      </c>
+      <c r="R38" t="s">
+        <v>89</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>4.5</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>33000001</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39">
+        <v>1000037</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39">
+        <v>24</v>
+      </c>
+      <c r="I39">
+        <v>1.5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.5</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S39">
+        <v>9</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>4.5</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>33000001</v>
+      </c>
+      <c r="X39" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40">
+        <v>1000038</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>1.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0.5</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>83</v>
+      </c>
+      <c r="R40" t="s">
+        <v>89</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>33000001</v>
+      </c>
+      <c r="X40" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41">
+        <v>1000039</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41">
+        <v>1.5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.5</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" t="s">
+        <v>89</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>33000001</v>
+      </c>
+      <c r="X41" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42">
+        <v>1000040</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <v>1.5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0.5</v>
+      </c>
+      <c r="P42">
+        <v>0.6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>33000001</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43">
+        <v>1000041</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>1.5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0.5</v>
+      </c>
+      <c r="P43">
+        <v>0.6</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" t="s">
+        <v>89</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>5.3</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>33000001</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44">
+        <v>1000042</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>1.5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>83</v>
+      </c>
+      <c r="R44" t="s">
+        <v>89</v>
+      </c>
+      <c r="S44">
+        <v>18</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>5</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>33000001</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45">
+        <v>1000043</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>1.5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" t="s">
+        <v>89</v>
+      </c>
+      <c r="S45">
+        <v>33</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>5.5</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>33000001</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46">
+        <v>1000044</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>1.5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" t="s">
+        <v>89</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>33000001</v>
+      </c>
+      <c r="X46" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y46">
+        <v>15</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47">
+        <v>1000045</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>1.5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>83</v>
+      </c>
+      <c r="R47" t="s">
+        <v>89</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>4.3</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>33000001</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48">
+        <v>1000046</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>1.5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.5</v>
+      </c>
+      <c r="P48">
+        <v>1.5</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R48" t="s">
+        <v>89</v>
+      </c>
+      <c r="S48">
+        <v>27</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>4.3</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>33000001</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49">
+        <v>1000047</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49">
+        <v>45</v>
+      </c>
+      <c r="I49">
+        <v>1.5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0.5</v>
+      </c>
+      <c r="P49">
+        <v>2.5</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" t="s">
+        <v>89</v>
+      </c>
+      <c r="S49">
+        <v>35</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>4.1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>33000001</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50">
+        <v>1000048</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>1.5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>83</v>
+      </c>
+      <c r="R50" t="s">
+        <v>89</v>
+      </c>
+      <c r="S50">
+        <v>20</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>5</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>33000001</v>
+      </c>
+      <c r="X50" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51">
+        <v>1000049</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>1.5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.5</v>
+      </c>
+      <c r="P51">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>83</v>
+      </c>
+      <c r="R51" t="s">
+        <v>89</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>5.5</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>33000001</v>
+      </c>
+      <c r="X51" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52">
+        <v>1000050</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>1.5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0.5</v>
+      </c>
+      <c r="P52">
+        <v>0.5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>83</v>
+      </c>
+      <c r="R52" t="s">
+        <v>89</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>5.5</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>33000001</v>
+      </c>
+      <c r="X52" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53">
+        <v>1000051</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>1.5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0.5</v>
+      </c>
+      <c r="P53">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>83</v>
+      </c>
+      <c r="R53" t="s">
+        <v>89</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>4.5</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>33000001</v>
+      </c>
+      <c r="X53" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54">
+        <v>1000052</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>1.5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0.5</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>83</v>
+      </c>
+      <c r="R54" t="s">
+        <v>89</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>33000001</v>
+      </c>
+      <c r="X54" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y54">
+        <v>10</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55">
+        <v>1000053</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55">
+        <v>0.1</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55">
+        <v>300</v>
+      </c>
+      <c r="I55">
+        <v>1.5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0.5</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" t="s">
+        <v>89</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>5</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>33000001</v>
+      </c>
+      <c r="X55" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y55">
+        <v>10</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56">
+        <v>1000054</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56">
+        <v>600</v>
+      </c>
+      <c r="I56">
+        <v>1.5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0.5</v>
+      </c>
+      <c r="P56">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R56" t="s">
+        <v>89</v>
+      </c>
+      <c r="S56">
+        <v>35</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>33000001</v>
+      </c>
+      <c r="X56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y56">
+        <v>20</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57">
+        <v>1000055</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>248</v>
+      </c>
+      <c r="H57">
+        <v>250</v>
+      </c>
+      <c r="I57">
+        <v>1.5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>83</v>
+      </c>
+      <c r="R57" t="s">
+        <v>89</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>33000001</v>
+      </c>
+      <c r="X57" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y57">
+        <v>10</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58">
+        <v>1000056</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58">
+        <v>250</v>
+      </c>
+      <c r="I58">
+        <v>1.5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>0.5</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>83</v>
+      </c>
+      <c r="R58" t="s">
+        <v>89</v>
+      </c>
+      <c r="S58">
+        <v>6</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>33000001</v>
+      </c>
+      <c r="X58" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y58">
+        <v>10</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="32" customHeight="1" spans="1:28">
+      <c r="A64">
+        <v>2000001</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>255</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0.5</v>
+      </c>
+      <c r="P64">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>83</v>
+      </c>
+      <c r="R64" t="s">
+        <v>84</v>
+      </c>
+      <c r="S64">
+        <v>35</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>31000001</v>
+      </c>
+      <c r="X64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65">
+        <v>2000002</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>0.75</v>
+      </c>
+      <c r="J65" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>89</v>
+      </c>
+      <c r="R65" t="s">
+        <v>89</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66">
+        <v>2000003</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>1.5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>265</v>
+      </c>
+      <c r="K66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>89</v>
+      </c>
+      <c r="R66" t="s">
+        <v>89</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67">
+        <v>2000004</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>268</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+      <c r="I67">
+        <v>1.5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>265</v>
+      </c>
+      <c r="K67" t="s">
+        <v>71</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R67" t="s">
+        <v>89</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68">
+        <v>2000005</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>271</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>1.5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>265</v>
+      </c>
+      <c r="K68" t="s">
+        <v>71</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>89</v>
+      </c>
+      <c r="R68" t="s">
+        <v>89</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69">
+        <v>3000001</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69">
+        <v>0.2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" t="s">
+        <v>71</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>10</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>0.3835</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>276</v>
+      </c>
+      <c r="R69" t="s">
+        <v>89</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>5</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>33000002</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>1000</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70">
+        <v>3000002</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70">
+        <v>0.2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" t="s">
+        <v>279</v>
+      </c>
+      <c r="H70">
+        <v>40</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>70</v>
+      </c>
+      <c r="K70" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70">
+        <v>10</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>0.3835</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>83</v>
+      </c>
+      <c r="R70" t="s">
+        <v>89</v>
+      </c>
+      <c r="S70">
+        <v>40</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>31000002</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>1000</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71">
+        <v>4000001</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71">
+        <v>0.5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>70</v>
+      </c>
+      <c r="K71" t="s">
+        <v>283</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0.5</v>
+      </c>
+      <c r="P71">
+        <v>1.5</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>284</v>
+      </c>
+      <c r="R71" t="s">
+        <v>89</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+      <c r="T71" t="b">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
         <v>33000003</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <v>1000</v>
       </c>
-      <c r="Z24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="Z71" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA71" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB71" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3775,99 +8175,99 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="30.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="9.68518518518519"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="30.8981481481481" customWidth="1"/>
+    <col min="4" max="4" width="17.5277777777778" customWidth="1"/>
+    <col min="5" max="5" width="16.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.787037037037" customWidth="1"/>
+    <col min="7" max="7" width="11.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="11.787037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:8">
-      <c r="A1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3876,19 +8276,19 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3902,19 +8302,19 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -3928,19 +8328,19 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3954,19 +8354,19 @@
         <v>21000004</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -3980,19 +8380,19 @@
         <v>21000005</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4006,10 +8406,10 @@
         <v>21000006</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4032,19 +8432,19 @@
         <v>21000007</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -4058,25 +8458,1195 @@
         <v>21000008</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
         <v>1000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>21000009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>21000011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>1000013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>21000012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1000014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>21000013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1000015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>21000014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1000016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>21000015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1000017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>21000016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1000018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>21000017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1000019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>21000018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1000020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>21000019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1000021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21000020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1000022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21000021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1000023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>21000022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1000024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>21000023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1000025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>21000024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>1000026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>21000025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1000027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>21000026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1000028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>21000027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1000029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>21000028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1000030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>21000029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1000031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>21000030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>1000032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>21000031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>1000033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>21000032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1000034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>21000033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1000035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>21000034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>1000036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>21000035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1000037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>21000036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1000038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>21000037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1000039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>21000038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>1000040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>21000039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>1000041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>21000040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>1000042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>21000041</v>
+      </c>
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>1000043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>21000042</v>
+      </c>
+      <c r="B45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1000044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>21000043</v>
+      </c>
+      <c r="B46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1000045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>21000044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1000046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>21000045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1000047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>21000046</v>
+      </c>
+      <c r="B49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1000048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>21000047</v>
+      </c>
+      <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>1000049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>21000048</v>
+      </c>
+      <c r="B51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>1000050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>21000049</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>1000051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>21000050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1000052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>21000051</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1000053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>21000052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1000054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>21000053</v>
+      </c>
+      <c r="B56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1000055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>21000054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>341</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1000056</v>
       </c>
     </row>
   </sheetData>
@@ -4088,30 +9658,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" customWidth="1"/>
-    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.11111111111111" customWidth="1"/>
+    <col min="1" max="1" width="9.10185185185185" customWidth="1"/>
+    <col min="2" max="2" width="25.787037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.6851851851852" customWidth="1"/>
+    <col min="4" max="4" width="10.6851851851852" customWidth="1"/>
+    <col min="5" max="5" width="9.10185185185185" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="13.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="22.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="17.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="13.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="12.8888888888889"/>
-    <col min="18" max="18" width="21.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="13.5277777777778" customWidth="1"/>
+    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.0462962962963" customWidth="1"/>
+    <col min="12" max="12" width="10.3148148148148" customWidth="1"/>
+    <col min="13" max="13" width="17.2037037037037" customWidth="1"/>
+    <col min="14" max="14" width="12.4166666666667" customWidth="1"/>
+    <col min="15" max="15" width="13.2037037037037" customWidth="1"/>
+    <col min="16" max="16" width="13.5277777777778" customWidth="1"/>
+    <col min="17" max="17" width="12.8981481481481"/>
+    <col min="18" max="18" width="21.5277777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:18">
@@ -4119,55 +9689,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>176</v>
+        <v>346</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>181</v>
+        <v>351</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>187</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:18">
@@ -4178,52 +9748,52 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>195</v>
+        <v>365</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>196</v>
+        <v>366</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>202</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:18">
@@ -4246,7 +9816,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
@@ -4279,7 +9849,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -4287,7 +9857,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -4299,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -4335,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4343,7 +9913,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>378</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -4355,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -4391,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4399,7 +9969,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>379</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -4411,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -4447,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4455,7 +10025,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -4467,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -4503,27 +10073,27 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>211</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>31000005</v>
+        <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>382</v>
       </c>
       <c r="C8">
-        <v>41000009</v>
+        <v>41000001</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -4532,54 +10102,54 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>383</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>31000006</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>31000006</v>
+        <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="C9">
-        <v>41000009</v>
+        <v>41000002</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -4588,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -4606,27 +10176,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>32000001</v>
+        <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>386</v>
       </c>
       <c r="C10">
-        <v>41000001</v>
+        <v>41000003</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4647,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -4662,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4671,18 +10241,18 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>32000002</v>
+        <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="C11">
-        <v>41000002</v>
+        <v>41000004</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4703,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -4718,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -4727,18 +10297,18 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>32000003</v>
+        <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="C12">
-        <v>41000003</v>
+        <v>41000005</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4759,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -4774,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -4783,18 +10353,18 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>32000004</v>
+        <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>391</v>
       </c>
       <c r="C13">
-        <v>41000004</v>
+        <v>41000001</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4812,10 +10382,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -4830,27 +10400,27 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>32000005</v>
+        <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>392</v>
       </c>
       <c r="C14">
-        <v>41000005</v>
+        <v>41000006</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4868,10 +10438,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -4886,27 +10456,27 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>33000001</v>
+        <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>393</v>
       </c>
       <c r="C15">
-        <v>41000001</v>
+        <v>41000008</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4956,22 +10526,22 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>33000002</v>
+        <v>33000004</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="C16">
-        <v>41000006</v>
+        <v>41000010</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>376</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -5007,18 +10577,18 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>33000003</v>
+        <v>33000005</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="7">
-        <v>41000008</v>
+        <v>396</v>
+      </c>
+      <c r="C17">
+        <v>41000011</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5063,6 +10633,286 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>33000006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18">
+        <v>41000012</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>33000007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19">
+        <v>41000013</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>33000008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20">
+        <v>41000014</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>33000009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <v>41000015</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>33000010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22">
+        <v>41000016</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5075,88 +10925,88 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="25.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.787037037037" customWidth="1"/>
+    <col min="2" max="2" width="25.3148148148148" customWidth="1"/>
+    <col min="3" max="3" width="18.8981481481481" customWidth="1"/>
+    <col min="4" max="4" width="16.3148148148148" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="17.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="12.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="13.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.8981481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.5277777777778" customWidth="1"/>
+    <col min="10" max="10" width="21.6851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>235</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>241</v>
+        <v>417</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -5196,7 +11046,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5228,10 +11078,10 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5260,7 +11110,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5292,7 +11142,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5324,7 +11174,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5356,10 +11206,10 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -5388,7 +11238,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -5420,7 +11270,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5452,7 +11302,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -5484,16 +11334,16 @@
         <v>41000009</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5508,6 +11358,230 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>41000010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>41000011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>41000012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>41000013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>41000014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>41000015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>41000016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
     </row>
@@ -5539,54 +11613,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>262</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>444</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>267</v>
+        <v>445</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>268</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -5620,7 +11694,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>447</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5635,10 +11709,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>448</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -5646,7 +11720,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5661,10 +11735,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>274</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
   <si>
     <t>实体id</t>
   </si>
@@ -224,14 +224,14 @@
     <t>1-小恶魔</t>
   </si>
   <si>
-    <t>0,18</t>
+    <t>0,20</t>
   </si>
   <si>
     <t>恶魔小兵
 一只杂鱼</t>
   </si>
   <si>
-    <t>6,2,0.5</t>
+    <t>1.2,1.2,0</t>
   </si>
   <si>
     <t>0/0/0/0</t>
@@ -259,9 +259,6 @@
 也是杂鱼</t>
   </si>
   <si>
-    <t>1,0.3333,0.03</t>
-  </si>
-  <si>
     <t>弱小的低级步兵，没有可观的输出能力。他们唯一的优点就是非常便宜，是数量众多的炮灰部队。骸骨士兵主要能力就是以大量的数量吸收火力和拖延时间纠缠阻挡敌人，让敌人无法伤害真正重要的单位。在升级骸骨士兵时会增加每支部队的骸骨士兵人数。
 |
 这些方徨的亡者是地狱中最常见的景象，他们的存在无处不在。 每一具裸露的、走动的骨架都是已经忘却过去迷失自我的死者。这些可悲的存在黑暗魔法的影响下被迫挥动着粗糙的武器进入战场，成为无穷战争中最方便的傀儡炮灰</t>
@@ -308,9 +305,6 @@
     <t>A04-处刑者</t>
   </si>
   <si>
-    <t>-6.4,18</t>
-  </si>
-  <si>
     <t>敌方aoe兵</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>B-7风车巨人</t>
   </si>
   <si>
-    <t>0,15</t>
-  </si>
-  <si>
     <t>敌方精英aoe巨人</t>
   </si>
   <si>
@@ -356,9 +347,6 @@
     <t>2-骸骨战士</t>
   </si>
   <si>
-    <t>-5,18</t>
-  </si>
-  <si>
     <t>炮灰</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
   </si>
   <si>
     <t>召唤物炮灰</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
   </si>
   <si>
     <t>[WIP]鲜血神像</t>
@@ -801,6 +786,9 @@
 攻击设施</t>
   </si>
   <si>
+    <t>4,2,0</t>
+  </si>
+  <si>
     <t>黑暗堡垒</t>
   </si>
   <si>
@@ -810,7 +798,7 @@
     <t>据点</t>
   </si>
   <si>
-    <t>35,10,4</t>
+    <t>20,8,0.7</t>
   </si>
   <si>
     <r>
@@ -833,7 +821,7 @@
     <t>敌方据点</t>
   </si>
   <si>
-    <t>40,15,6</t>
+    <t>12,4,2.4</t>
   </si>
   <si>
     <t>要塞-人类</t>
@@ -845,6 +833,9 @@
     <t>敌方要塞</t>
   </si>
   <si>
+    <t>12,4,0</t>
+  </si>
+  <si>
     <t>要塞-恶魔</t>
   </si>
   <si>
@@ -866,6 +857,9 @@
     <t>赤色杀人魔</t>
   </si>
   <si>
+    <t>6,2,0.5</t>
+  </si>
+  <si>
     <t>8,8</t>
   </si>
   <si>
@@ -884,15 +878,24 @@
     <t>恶魔领主-小人</t>
   </si>
   <si>
+    <t>0,18</t>
+  </si>
+  <si>
     <t>英雄</t>
   </si>
   <si>
+    <t>3,3,0</t>
+  </si>
+  <si>
     <t>1/0/0/0</t>
   </si>
   <si>
     <t>7,7</t>
   </si>
   <si>
+    <t>4,2</t>
+  </si>
+  <si>
     <t>51000002/51000001</t>
   </si>
   <si>
@@ -1335,6 +1338,9 @@
   </si>
   <si>
     <t>物理_近战_地狱军团砍击</t>
+  </si>
+  <si>
+    <t>远程_普通弓箭伤害</t>
   </si>
   <si>
     <t>技能id</t>
@@ -2106,9 +2112,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2459,8 +2462,8 @@
   <sheetPr/>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2469,6 +2472,7 @@
     <col min="4" max="4" width="15.3981481481481" customWidth="1"/>
     <col min="5" max="6" width="10.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="9.99074074074074" customWidth="1"/>
+    <col min="10" max="10" width="23.0092592592593" customWidth="1"/>
     <col min="11" max="11" width="8.40740740740741" customWidth="1"/>
     <col min="12" max="12" width="9.2037037037037" customWidth="1"/>
     <col min="13" max="13" width="9.36111111111111" customWidth="1"/>
@@ -2761,7 +2765,7 @@
         <v>67</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -2770,7 +2774,7 @@
         <v>69</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>1.5</v>
@@ -2847,7 +2851,7 @@
         <v>76</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2862,7 +2866,7 @@
         <v>1.5</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2916,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:28">
@@ -2927,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -2969,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" t="s">
         <v>83</v>
-      </c>
-      <c r="R6" t="s">
-        <v>84</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -3002,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3013,19 +3017,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -3058,7 +3062,7 @@
         <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -3088,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3099,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
         <v>92</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -3141,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -3162,7 +3166,7 @@
         <v>32000004</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -3174,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3185,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
         <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -3227,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -3248,7 +3252,7 @@
         <v>32000004</v>
       </c>
       <c r="X9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -3260,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3271,22 +3275,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>0.15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
       <c r="H10">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="I10">
         <v>1.5</v>
@@ -3313,10 +3317,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -3334,7 +3338,7 @@
         <v>32000005</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3346,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3357,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -3399,10 +3403,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" t="s">
         <v>83</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
       </c>
       <c r="S11">
         <v>38</v>
@@ -3420,7 +3424,7 @@
         <v>31000004</v>
       </c>
       <c r="X11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3432,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3443,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>109</v>
+        <v>0.15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -3506,7 +3510,7 @@
         <v>33000006</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3518,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3529,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>109</v>
+        <v>0.15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3571,10 +3575,10 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S13">
         <v>30</v>
@@ -3604,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3615,19 +3619,19 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14">
-        <v>0.13</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -3690,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3701,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F15" t="s">
         <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -3722,7 +3726,7 @@
         <v>1.5</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -3764,7 +3768,7 @@
         <v>33000006</v>
       </c>
       <c r="X15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3776,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3787,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -3829,10 +3833,10 @@
         <v>1.5</v>
       </c>
       <c r="Q16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" t="s">
         <v>83</v>
-      </c>
-      <c r="R16" t="s">
-        <v>84</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -3850,7 +3854,7 @@
         <v>33000004</v>
       </c>
       <c r="X16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3862,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -3873,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -3894,7 +3898,7 @@
         <v>1.5</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
@@ -3936,7 +3940,7 @@
         <v>33000007</v>
       </c>
       <c r="X17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3948,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -3959,19 +3963,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H18">
         <v>70</v>
@@ -4001,10 +4005,10 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S18">
         <v>4</v>
@@ -4034,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -4045,19 +4049,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -4090,7 +4094,7 @@
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -4108,7 +4112,7 @@
         <v>31000004</v>
       </c>
       <c r="X19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4120,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -4131,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F20" t="s">
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -4173,10 +4177,10 @@
         <v>0.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S20">
         <v>25</v>
@@ -4194,7 +4198,7 @@
         <v>33000001</v>
       </c>
       <c r="X20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4206,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -4217,19 +4221,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -4262,7 +4266,7 @@
         <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4280,7 +4284,7 @@
         <v>33000001</v>
       </c>
       <c r="X21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4292,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -4303,19 +4307,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E22">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H22">
         <v>60</v>
@@ -4348,7 +4352,7 @@
         <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -4378,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -4389,19 +4393,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E23">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F23" t="s">
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -4431,10 +4435,10 @@
         <v>0.5</v>
       </c>
       <c r="Q23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -4464,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -4475,19 +4479,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
-      </c>
-      <c r="F24" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F24" t="s">
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H24">
         <v>300</v>
@@ -4517,10 +4521,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S24">
         <v>10</v>
@@ -4538,7 +4542,7 @@
         <v>33000001</v>
       </c>
       <c r="X24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4550,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -4561,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H25">
         <v>18</v>
@@ -4603,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S25">
         <v>27</v>
@@ -4636,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -4647,19 +4651,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F26" t="s">
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H26">
         <v>325</v>
@@ -4689,10 +4693,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S26">
         <v>33</v>
@@ -4710,7 +4714,7 @@
         <v>33000001</v>
       </c>
       <c r="X26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -4722,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" s="9" customFormat="1" spans="1:28">
@@ -4733,19 +4737,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F27" t="s">
         <v>68</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H27" s="9">
         <v>40</v>
@@ -4778,7 +4782,7 @@
         <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S27" s="9">
         <v>3</v>
@@ -4796,7 +4800,7 @@
         <v>33000001</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y27" s="9">
         <v>2</v>
@@ -4808,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -4819,19 +4823,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F28" t="s">
         <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H28">
         <v>22</v>
@@ -4864,7 +4868,7 @@
         <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -4894,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -4905,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F29" t="s">
         <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -4947,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S29">
         <v>27</v>
@@ -4968,7 +4972,7 @@
         <v>33000001</v>
       </c>
       <c r="X29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -4980,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -4991,19 +4995,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F30" t="s">
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -5033,10 +5037,10 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S30">
         <v>25</v>
@@ -5066,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -5077,19 +5081,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H31">
         <v>40</v>
@@ -5122,7 +5126,7 @@
         <v>72</v>
       </c>
       <c r="R31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S31">
         <v>4</v>
@@ -5152,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -5163,19 +5167,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F32" t="s">
         <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -5208,7 +5212,7 @@
         <v>72</v>
       </c>
       <c r="R32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -5226,7 +5230,7 @@
         <v>33000001</v>
       </c>
       <c r="X32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -5238,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -5249,19 +5253,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F33" t="s">
         <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H33">
         <v>25</v>
@@ -5291,10 +5295,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S33">
         <v>26</v>
@@ -5324,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -5335,19 +5339,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F34" t="s">
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H34">
         <v>24</v>
@@ -5380,7 +5384,7 @@
         <v>72</v>
       </c>
       <c r="R34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S34">
         <v>3</v>
@@ -5410,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -5421,19 +5425,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E35">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H35">
         <v>27</v>
@@ -5466,7 +5470,7 @@
         <v>72</v>
       </c>
       <c r="R35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -5496,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -5507,19 +5511,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
-      </c>
-      <c r="F36" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F36" t="s">
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H36">
         <v>24</v>
@@ -5549,10 +5553,10 @@
         <v>0.8</v>
       </c>
       <c r="Q36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -5582,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5593,19 +5597,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F37" t="s">
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H37">
         <v>18</v>
@@ -5635,10 +5639,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S37">
         <v>28</v>
@@ -5656,7 +5660,7 @@
         <v>33000001</v>
       </c>
       <c r="X37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5668,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -5679,19 +5683,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
-      </c>
-      <c r="F38" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F38" t="s">
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H38">
         <v>24</v>
@@ -5721,10 +5725,10 @@
         <v>1.8</v>
       </c>
       <c r="Q38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S38">
         <v>12</v>
@@ -5754,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -5765,19 +5769,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
-      </c>
-      <c r="F39" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F39" t="s">
         <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H39">
         <v>24</v>
@@ -5810,7 +5814,7 @@
         <v>72</v>
       </c>
       <c r="R39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S39">
         <v>9</v>
@@ -5828,7 +5832,7 @@
         <v>33000001</v>
       </c>
       <c r="X39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y39">
         <v>2</v>
@@ -5840,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="AB39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -5851,19 +5855,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
-      </c>
-      <c r="F40" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F40" t="s">
         <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -5893,10 +5897,10 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -5914,7 +5918,7 @@
         <v>33000001</v>
       </c>
       <c r="X40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -5926,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -5937,19 +5941,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F41" t="s">
         <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -5979,10 +5983,10 @@
         <v>2</v>
       </c>
       <c r="Q41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S41">
         <v>10</v>
@@ -6000,7 +6004,7 @@
         <v>33000001</v>
       </c>
       <c r="X41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -6012,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AB41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -6023,19 +6027,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
-      </c>
-      <c r="F42" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F42" t="s">
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H42">
         <v>23</v>
@@ -6068,7 +6072,7 @@
         <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S42">
         <v>3</v>
@@ -6098,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -6109,19 +6113,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
-      </c>
-      <c r="F43" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F43" t="s">
         <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H43">
         <v>23</v>
@@ -6154,7 +6158,7 @@
         <v>72</v>
       </c>
       <c r="R43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -6184,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -6195,19 +6199,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
-      </c>
-      <c r="F44" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F44" t="s">
         <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H44">
         <v>20</v>
@@ -6237,10 +6241,10 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S44">
         <v>18</v>
@@ -6270,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -6281,19 +6285,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E45">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F45" t="s">
         <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H45">
         <v>23</v>
@@ -6323,10 +6327,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S45">
         <v>33</v>
@@ -6356,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AB45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -6367,19 +6371,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
-      </c>
-      <c r="F46" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F46" t="s">
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H46">
         <v>70</v>
@@ -6409,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S46">
         <v>3</v>
@@ -6430,7 +6434,7 @@
         <v>33000001</v>
       </c>
       <c r="X46" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Y46">
         <v>15</v>
@@ -6442,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AB46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -6453,19 +6457,19 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
-      </c>
-      <c r="F47" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F47" t="s">
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -6495,10 +6499,10 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S47">
         <v>8</v>
@@ -6528,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="AB47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -6539,19 +6543,19 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F48" t="s">
         <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -6581,10 +6585,10 @@
         <v>1.5</v>
       </c>
       <c r="Q48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S48">
         <v>27</v>
@@ -6614,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -6625,19 +6629,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F49" t="s">
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H49">
         <v>45</v>
@@ -6667,10 +6671,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S49">
         <v>35</v>
@@ -6700,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -6711,19 +6715,19 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
-      </c>
-      <c r="F50" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F50" t="s">
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H50">
         <v>20</v>
@@ -6753,10 +6757,10 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S50">
         <v>20</v>
@@ -6774,7 +6778,7 @@
         <v>33000001</v>
       </c>
       <c r="X50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -6786,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6797,19 +6801,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E51">
-        <v>0.1</v>
-      </c>
-      <c r="F51" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F51" t="s">
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -6839,10 +6843,10 @@
         <v>0.5</v>
       </c>
       <c r="Q51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S51">
         <v>2</v>
@@ -6860,7 +6864,7 @@
         <v>33000001</v>
       </c>
       <c r="X51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -6872,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -6883,19 +6887,19 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E52">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F52" t="s">
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H52">
         <v>20</v>
@@ -6925,10 +6929,10 @@
         <v>0.5</v>
       </c>
       <c r="Q52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S52">
         <v>4</v>
@@ -6946,7 +6950,7 @@
         <v>33000001</v>
       </c>
       <c r="X52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -6958,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -6969,19 +6973,19 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E53">
-        <v>0.1</v>
-      </c>
-      <c r="F53" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F53" t="s">
         <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H53">
         <v>18</v>
@@ -7011,10 +7015,10 @@
         <v>0.5</v>
       </c>
       <c r="Q53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S53">
         <v>7</v>
@@ -7032,7 +7036,7 @@
         <v>33000001</v>
       </c>
       <c r="X53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -7044,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="AB53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7055,19 +7059,19 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
-      </c>
-      <c r="F54" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F54" t="s">
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H54">
         <v>80</v>
@@ -7097,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S54">
         <v>5</v>
@@ -7118,7 +7122,7 @@
         <v>33000001</v>
       </c>
       <c r="X54" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y54">
         <v>10</v>
@@ -7130,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AB54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -7141,19 +7145,19 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
-      </c>
-      <c r="F55" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F55" t="s">
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H55">
         <v>300</v>
@@ -7183,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S55">
         <v>5</v>
@@ -7204,7 +7208,7 @@
         <v>33000001</v>
       </c>
       <c r="X55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y55">
         <v>10</v>
@@ -7216,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7227,19 +7231,19 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
-      </c>
-      <c r="F56" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F56" t="s">
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -7269,10 +7273,10 @@
         <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S56">
         <v>35</v>
@@ -7290,7 +7294,7 @@
         <v>33000001</v>
       </c>
       <c r="X56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y56">
         <v>20</v>
@@ -7302,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="AB56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -7313,19 +7317,19 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E57">
-        <v>0.1</v>
-      </c>
-      <c r="F57" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F57" t="s">
         <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H57">
         <v>250</v>
@@ -7355,10 +7359,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S57">
         <v>5</v>
@@ -7376,7 +7380,7 @@
         <v>33000001</v>
       </c>
       <c r="X57" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Y57">
         <v>10</v>
@@ -7388,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="AB57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -7399,19 +7403,19 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="13" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="F58" t="s">
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H58">
         <v>250</v>
@@ -7441,10 +7445,10 @@
         <v>3</v>
       </c>
       <c r="Q58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S58">
         <v>6</v>
@@ -7462,7 +7466,7 @@
         <v>33000001</v>
       </c>
       <c r="X58" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Y58">
         <v>10</v>
@@ -7474,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AB58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" ht="32" customHeight="1" spans="1:28">
@@ -7485,19 +7489,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E64">
         <v>0.5</v>
       </c>
       <c r="F64" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H64">
         <v>20</v>
@@ -7506,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="K64" t="s">
         <v>71</v>
@@ -7527,10 +7531,10 @@
         <v>0.5</v>
       </c>
       <c r="Q64" t="s">
+        <v>82</v>
+      </c>
+      <c r="R64" t="s">
         <v>83</v>
-      </c>
-      <c r="R64" t="s">
-        <v>84</v>
       </c>
       <c r="S64">
         <v>35</v>
@@ -7548,7 +7552,7 @@
         <v>31000001</v>
       </c>
       <c r="X64" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -7560,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="AB64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -7571,19 +7575,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H65">
         <v>30</v>
@@ -7592,7 +7596,7 @@
         <v>0.75</v>
       </c>
       <c r="J65" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K65" t="s">
         <v>71</v>
@@ -7613,40 +7617,40 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
+        <v>88</v>
+      </c>
+      <c r="R65" t="s">
+        <v>88</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
         <v>89</v>
-      </c>
-      <c r="R65" t="s">
-        <v>89</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -7657,19 +7661,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H66">
         <v>30</v>
@@ -7678,7 +7682,7 @@
         <v>1.5</v>
       </c>
       <c r="J66" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s">
         <v>71</v>
@@ -7699,40 +7703,40 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
+        <v>88</v>
+      </c>
+      <c r="R66" t="s">
+        <v>88</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="s">
         <v>89</v>
-      </c>
-      <c r="R66" t="s">
-        <v>89</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="b">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -7743,19 +7747,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H67">
         <v>50</v>
@@ -7785,40 +7789,40 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
+        <v>88</v>
+      </c>
+      <c r="R67" t="s">
+        <v>88</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="s">
         <v>89</v>
-      </c>
-      <c r="R67" t="s">
-        <v>89</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" t="b">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -7829,19 +7833,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H68">
         <v>50</v>
@@ -7871,40 +7875,40 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
+        <v>88</v>
+      </c>
+      <c r="R68" t="s">
+        <v>88</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="s">
         <v>89</v>
-      </c>
-      <c r="R68" t="s">
-        <v>89</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68" t="b">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -7915,19 +7919,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E69">
         <v>0.2</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H69">
         <v>40</v>
@@ -7936,7 +7940,7 @@
         <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -7957,10 +7961,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -7990,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="AB69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -8001,19 +8005,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E70">
         <v>0.2</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H70">
         <v>40</v>
@@ -8022,7 +8026,7 @@
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="K70" t="s">
         <v>71</v>
@@ -8043,10 +8047,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S70">
         <v>40</v>
@@ -8076,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="AB70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -8087,40 +8091,40 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E71">
         <v>0.5</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="K71" t="s">
         <v>283</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O71">
         <v>0.5</v>
@@ -8132,16 +8136,16 @@
         <v>284</v>
       </c>
       <c r="R71" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T71" t="b">
         <v>1</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -8156,13 +8160,13 @@
         <v>1000</v>
       </c>
       <c r="Z71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA71" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8178,7 +8182,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8195,54 +8199,54 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:8">
@@ -8276,13 +8280,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -8302,13 +8306,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -8328,13 +8332,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -8354,13 +8358,13 @@
         <v>21000004</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -8380,13 +8384,13 @@
         <v>21000005</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8406,10 +8410,10 @@
         <v>21000006</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8432,13 +8436,13 @@
         <v>21000007</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -8447,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>1000010</v>
@@ -8458,13 +8462,13 @@
         <v>21000008</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -8484,13 +8488,13 @@
         <v>21000009</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -8510,13 +8514,13 @@
         <v>21000011</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -8536,13 +8540,13 @@
         <v>21000012</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -8562,13 +8566,13 @@
         <v>21000013</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -8588,13 +8592,13 @@
         <v>21000014</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>35</v>
@@ -8614,13 +8618,13 @@
         <v>21000015</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -8640,13 +8644,13 @@
         <v>21000016</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -8666,13 +8670,13 @@
         <v>21000017</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8692,13 +8696,13 @@
         <v>21000018</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E20">
         <v>40</v>
@@ -8718,13 +8722,13 @@
         <v>21000019</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -8744,13 +8748,13 @@
         <v>21000020</v>
       </c>
       <c r="B22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -8770,13 +8774,13 @@
         <v>21000021</v>
       </c>
       <c r="B23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -8796,13 +8800,13 @@
         <v>21000022</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -8822,13 +8826,13 @@
         <v>21000023</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -8848,13 +8852,13 @@
         <v>21000024</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8874,13 +8878,13 @@
         <v>21000025</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8900,13 +8904,13 @@
         <v>21000026</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -8926,13 +8930,13 @@
         <v>21000027</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8952,13 +8956,13 @@
         <v>21000028</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8978,13 +8982,13 @@
         <v>21000029</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9004,13 +9008,13 @@
         <v>21000030</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9030,13 +9034,13 @@
         <v>21000031</v>
       </c>
       <c r="B34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9056,13 +9060,13 @@
         <v>21000032</v>
       </c>
       <c r="B35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9082,13 +9086,13 @@
         <v>21000033</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -9108,13 +9112,13 @@
         <v>21000034</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9134,13 +9138,13 @@
         <v>21000035</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9160,13 +9164,13 @@
         <v>21000036</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9186,13 +9190,13 @@
         <v>21000037</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9212,13 +9216,13 @@
         <v>21000038</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9238,13 +9242,13 @@
         <v>21000039</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9264,13 +9268,13 @@
         <v>21000040</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9290,13 +9294,13 @@
         <v>21000041</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9316,13 +9320,13 @@
         <v>21000042</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9342,13 +9346,13 @@
         <v>21000043</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9368,13 +9372,13 @@
         <v>21000044</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9394,13 +9398,13 @@
         <v>21000045</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -9420,13 +9424,13 @@
         <v>21000046</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -9446,13 +9450,13 @@
         <v>21000047</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -9472,13 +9476,13 @@
         <v>21000048</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9498,13 +9502,13 @@
         <v>21000049</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9524,13 +9528,13 @@
         <v>21000050</v>
       </c>
       <c r="B53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -9550,13 +9554,13 @@
         <v>21000051</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9576,13 +9580,13 @@
         <v>21000052</v>
       </c>
       <c r="B55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9602,13 +9606,13 @@
         <v>21000053</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -9628,13 +9632,13 @@
         <v>21000054</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -9661,7 +9665,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
@@ -9689,55 +9693,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:18">
@@ -9748,52 +9752,52 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:18">
@@ -9816,7 +9820,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
@@ -9849,7 +9853,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -9857,7 +9861,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -9869,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -9881,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -9905,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -9913,7 +9917,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -9925,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9937,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -9961,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -9969,7 +9973,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -9981,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -9993,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10017,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10025,7 +10029,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -10037,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10049,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -10073,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -10081,7 +10085,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -10105,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10129,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -10137,7 +10141,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -10185,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -10193,7 +10197,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -10217,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -10241,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -10249,7 +10253,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -10273,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -10297,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -10305,7 +10309,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -10353,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -10361,7 +10365,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -10385,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -10409,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -10417,7 +10421,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -10441,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -10465,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10473,7 +10477,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C15">
         <v>41000008</v>
@@ -10497,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -10521,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -10529,7 +10533,7 @@
         <v>33000004</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C16">
         <v>41000010</v>
@@ -10541,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -10553,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -10577,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -10585,7 +10589,7 @@
         <v>33000005</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C17">
         <v>41000011</v>
@@ -10609,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -10633,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -10641,7 +10645,7 @@
         <v>33000006</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C18">
         <v>41000012</v>
@@ -10665,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -10689,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -10697,7 +10701,7 @@
         <v>33000007</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C19">
         <v>41000013</v>
@@ -10721,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -10745,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -10753,7 +10757,7 @@
         <v>33000008</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C20">
         <v>41000014</v>
@@ -10777,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -10801,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -10809,7 +10813,7 @@
         <v>33000009</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C21">
         <v>41000015</v>
@@ -10833,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -10857,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -10865,7 +10869,7 @@
         <v>33000010</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22">
         <v>41000016</v>
@@ -10889,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -10913,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -10925,10 +10929,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
@@ -10947,66 +10951,66 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -11046,7 +11050,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11078,10 +11082,10 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11110,7 +11114,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -11142,7 +11146,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11174,7 +11178,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -11206,7 +11210,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -11238,7 +11242,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -11270,7 +11274,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11302,7 +11306,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -11334,7 +11338,7 @@
         <v>41000009</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -11366,7 +11370,7 @@
         <v>41000010</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -11398,7 +11402,7 @@
         <v>41000011</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -11430,7 +11434,7 @@
         <v>41000012</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11462,7 +11466,7 @@
         <v>41000013</v>
       </c>
       <c r="B17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11494,7 +11498,7 @@
         <v>41000014</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -11526,7 +11530,7 @@
         <v>41000015</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -11558,7 +11562,7 @@
         <v>41000016</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -11582,6 +11586,38 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>42000017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
     </row>
@@ -11613,54 +11649,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -11694,7 +11730,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11709,10 +11745,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -11720,7 +11756,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11735,10 +11771,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="452">
   <si>
     <t>实体id</t>
   </si>
@@ -218,7 +218,7 @@
     <t>string|string</t>
   </si>
   <si>
-    <t>恶魔小兵</t>
+    <t>恶魔小兵/spine</t>
   </si>
   <si>
     <t>1-小恶魔</t>
@@ -243,13 +243,10 @@
     <t>7.5,2.5</t>
   </si>
   <si>
-    <t xml:space="preserve">玩家获得的第一个单位，是能力均衡的低级兵种。充当有战斗力的步兵部队。小恶魔也有他们的局限性，他们在面对更为精锐的敌军时可能显得稍显劣势。因此，在战斗中，合理利用他们的数量优势并结合其他兵种的特色将是关键。
-|
-小恶魔的生活并不轻松。他们生来就是地狱中最弱小的存在，身体笨拙、力量有限。但他们也是最单纯的恶魔，永远燃烧着对力量的渴望，因此会自愿成群结队地追随着强大的存在，身先士卒地投入最可怕的战争中。
-</t>
-  </si>
-  <si>
-    <t>步兵</t>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>步兵/spine</t>
   </si>
   <si>
     <t>A01农夫</t>
@@ -259,12 +256,7 @@
 也是杂鱼</t>
   </si>
   <si>
-    <t>弱小的低级步兵，没有可观的输出能力。他们唯一的优点就是非常便宜，是数量众多的炮灰部队。骸骨士兵主要能力就是以大量的数量吸收火力和拖延时间纠缠阻挡敌人，让敌人无法伤害真正重要的单位。在升级骸骨士兵时会增加每支部队的骸骨士兵人数。
-|
-这些方徨的亡者是地狱中最常见的景象，他们的存在无处不在。 每一具裸露的、走动的骨架都是已经忘却过去迷失自我的死者。这些可悲的存在黑暗魔法的影响下被迫挥动着粗糙的武器进入战场，成为无穷战争中最方便的傀儡炮灰</t>
-  </si>
-  <si>
-    <t>独眼恶魔</t>
+    <t>独眼恶魔/spine</t>
   </si>
   <si>
     <t>3-独眼恶魔</t>
@@ -279,12 +271,7 @@
     <t>16.5,2.5</t>
   </si>
   <si>
-    <t>作为第一个可以被招募的远程兵种，独眼恶魔为玩家的军队提供了可以依赖的，不断的远程火力。他们能准确地瞄准敌人，从而在安全的距离内造成伤害。缺点是自身相较脆弱，需要近战部队的掩护。
-|
-这种特殊的小恶魔那颗巨大的独眼让他们成为了天生的弓箭手。独眼恶魔的眼睛能够看到远超常生物的距离，他们的目光可以穿透黑暗的烟雾，清晰地观察到远处的一切。独眼恶魔以自己的方式在战场上游走。每一次射击，都是对敌人的死亡宣告</t>
-  </si>
-  <si>
-    <t>熔炉蛞蝓</t>
+    <t>熔炉蛞蝓/spine</t>
   </si>
   <si>
     <t>4-熔炉蛞蝓</t>
@@ -296,10 +283,7 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>处刑者</t>
+    <t>处刑者/spine</t>
   </si>
   <si>
     <t>A04-处刑者</t>
@@ -323,7 +307,7 @@
     <t>敌方精英aoe兵</t>
   </si>
   <si>
-    <t>风车巨人</t>
+    <t>风车巨人/spine</t>
   </si>
   <si>
     <t>B-7风车巨人</t>
@@ -341,7 +325,7 @@
     <t>7狱火臼炮</t>
   </si>
   <si>
-    <t>骷髅兵</t>
+    <t>骷髅兵/spine</t>
   </si>
   <si>
     <t>2-骸骨战士</t>
@@ -353,7 +337,7 @@
     <t>无血者</t>
   </si>
   <si>
-    <t>灾祸巫师</t>
+    <t>灾祸巫师/spine</t>
   </si>
   <si>
     <t>5-灾祸巫师</t>
@@ -491,13 +475,13 @@
     <t>不动如山</t>
   </si>
   <si>
-    <t>封地步兵</t>
+    <t>封地步兵/spine</t>
   </si>
   <si>
     <t>A02封地步兵</t>
   </si>
   <si>
-    <t>猎人</t>
+    <t>猎人/spine</t>
   </si>
   <si>
     <t>A03猎人</t>
@@ -509,7 +493,7 @@
     <t>钱袋5</t>
   </si>
   <si>
-    <t>见习修女</t>
+    <t>见习修女/spine</t>
   </si>
   <si>
     <t>A05见习修女</t>
@@ -1417,7 +1401,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,13 +1414,6 @@
       <color rgb="FF333333"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1942,13 +1919,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,122 +1937,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2104,9 +2081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2462,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2472,7 +2446,7 @@
     <col min="4" max="4" width="15.3981481481481" customWidth="1"/>
     <col min="5" max="6" width="10.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="9.99074074074074" customWidth="1"/>
-    <col min="10" max="10" width="23.0092592592593" customWidth="1"/>
+    <col min="10" max="10" width="5.35185185185185" customWidth="1"/>
     <col min="11" max="11" width="8.40740740740741" customWidth="1"/>
     <col min="12" max="12" width="9.2037037037037" customWidth="1"/>
     <col min="13" max="13" width="9.36111111111111" customWidth="1"/>
@@ -2833,7 +2807,7 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2919,8 +2893,8 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>78</v>
+      <c r="AB5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:28">
@@ -2931,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -2943,10 +2917,10 @@
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>1.5</v>
@@ -2970,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
         <v>82</v>
-      </c>
-      <c r="R6" t="s">
-        <v>83</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -3005,8 +2979,8 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>84</v>
+      <c r="AB6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3017,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0.15</v>
@@ -3029,10 +3003,10 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>1.5</v>
@@ -3062,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -3092,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3103,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>0.15</v>
@@ -3115,7 +3089,7 @@
         <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -3145,10 +3119,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -3166,7 +3140,7 @@
         <v>32000004</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -3178,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3189,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0.15</v>
@@ -3201,7 +3175,7 @@
         <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -3231,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -3252,7 +3226,7 @@
         <v>32000004</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -3264,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3275,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0.15</v>
@@ -3287,13 +3261,13 @@
         <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>120</v>
       </c>
       <c r="I10">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
@@ -3317,10 +3291,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -3338,7 +3312,7 @@
         <v>32000005</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3350,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3361,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0.15</v>
@@ -3373,7 +3347,7 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -3403,10 +3377,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
         <v>82</v>
-      </c>
-      <c r="R11" t="s">
-        <v>83</v>
       </c>
       <c r="S11">
         <v>38</v>
@@ -3424,7 +3398,7 @@
         <v>31000004</v>
       </c>
       <c r="X11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3436,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3447,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0.15</v>
@@ -3459,10 +3433,10 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>1.5</v>
@@ -3510,7 +3484,7 @@
         <v>33000006</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3522,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3533,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>0.15</v>
@@ -3545,7 +3519,7 @@
         <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3575,10 +3549,10 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S13">
         <v>30</v>
@@ -3608,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3619,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>0.15</v>
@@ -3631,7 +3605,7 @@
         <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -3694,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3705,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>0.15</v>
@@ -3717,7 +3691,7 @@
         <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -3768,7 +3742,7 @@
         <v>33000006</v>
       </c>
       <c r="X15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3780,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3791,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0.15</v>
@@ -3803,7 +3777,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -3833,10 +3807,10 @@
         <v>1.5</v>
       </c>
       <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" t="s">
         <v>82</v>
-      </c>
-      <c r="R16" t="s">
-        <v>83</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -3854,7 +3828,7 @@
         <v>33000004</v>
       </c>
       <c r="X16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3866,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -3877,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>0.15</v>
@@ -3889,7 +3863,7 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -3940,7 +3914,7 @@
         <v>33000007</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3952,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -3963,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>0.15</v>
@@ -3975,7 +3949,7 @@
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18">
         <v>70</v>
@@ -4005,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S18">
         <v>4</v>
@@ -4038,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -4049,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>0.15</v>
@@ -4061,7 +4035,7 @@
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -4094,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -4112,7 +4086,7 @@
         <v>31000004</v>
       </c>
       <c r="X19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4124,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -4135,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>0.15</v>
@@ -4147,7 +4121,7 @@
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -4177,10 +4151,10 @@
         <v>0.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S20">
         <v>25</v>
@@ -4198,7 +4172,7 @@
         <v>33000001</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4210,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -4221,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E21">
         <v>0.15</v>
@@ -4233,7 +4207,7 @@
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -4266,7 +4240,7 @@
         <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4284,7 +4258,7 @@
         <v>33000001</v>
       </c>
       <c r="X21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4296,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -4307,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E22">
         <v>0.15</v>
@@ -4319,7 +4293,7 @@
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22">
         <v>60</v>
@@ -4352,7 +4326,7 @@
         <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -4382,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -4393,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E23">
         <v>0.15</v>
@@ -4405,7 +4379,7 @@
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -4435,10 +4409,10 @@
         <v>0.5</v>
       </c>
       <c r="Q23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -4468,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -4479,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E24">
         <v>0.15</v>
@@ -4491,7 +4465,7 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24">
         <v>300</v>
@@ -4521,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S24">
         <v>10</v>
@@ -4542,7 +4516,7 @@
         <v>33000001</v>
       </c>
       <c r="X24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4554,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -4565,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E25">
         <v>0.15</v>
@@ -4577,7 +4551,7 @@
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H25">
         <v>18</v>
@@ -4607,10 +4581,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S25">
         <v>27</v>
@@ -4640,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -4651,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>0.15</v>
@@ -4663,7 +4637,7 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H26">
         <v>325</v>
@@ -4693,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S26">
         <v>33</v>
@@ -4714,7 +4688,7 @@
         <v>33000001</v>
       </c>
       <c r="X26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -4726,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="9" customFormat="1" spans="1:28">
@@ -4737,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E27">
         <v>0.15</v>
@@ -4749,7 +4723,7 @@
         <v>68</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H27" s="9">
         <v>40</v>
@@ -4782,7 +4756,7 @@
         <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S27" s="9">
         <v>3</v>
@@ -4800,7 +4774,7 @@
         <v>33000001</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y27" s="9">
         <v>2</v>
@@ -4812,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -4823,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E28">
         <v>0.15</v>
@@ -4835,7 +4809,7 @@
         <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H28">
         <v>22</v>
@@ -4868,7 +4842,7 @@
         <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -4898,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -4909,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>0.15</v>
@@ -4921,7 +4895,7 @@
         <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -4951,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S29">
         <v>27</v>
@@ -4972,7 +4946,7 @@
         <v>33000001</v>
       </c>
       <c r="X29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -4984,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -4995,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E30">
         <v>0.15</v>
@@ -5007,7 +4981,7 @@
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -5037,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S30">
         <v>25</v>
@@ -5070,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -5081,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E31">
         <v>0.15</v>
@@ -5093,7 +5067,7 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H31">
         <v>40</v>
@@ -5126,7 +5100,7 @@
         <v>72</v>
       </c>
       <c r="R31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S31">
         <v>4</v>
@@ -5156,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -5167,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E32">
         <v>0.15</v>
@@ -5179,7 +5153,7 @@
         <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -5212,7 +5186,7 @@
         <v>72</v>
       </c>
       <c r="R32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -5230,7 +5204,7 @@
         <v>33000001</v>
       </c>
       <c r="X32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -5242,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -5253,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E33">
         <v>0.15</v>
@@ -5265,7 +5239,7 @@
         <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H33">
         <v>25</v>
@@ -5295,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S33">
         <v>26</v>
@@ -5328,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -5339,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E34">
         <v>0.15</v>
@@ -5351,7 +5325,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H34">
         <v>24</v>
@@ -5384,7 +5358,7 @@
         <v>72</v>
       </c>
       <c r="R34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S34">
         <v>3</v>
@@ -5414,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -5425,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>0.15</v>
@@ -5437,7 +5411,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35">
         <v>27</v>
@@ -5470,7 +5444,7 @@
         <v>72</v>
       </c>
       <c r="R35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -5500,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -5511,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E36">
         <v>0.15</v>
@@ -5523,7 +5497,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H36">
         <v>24</v>
@@ -5553,10 +5527,10 @@
         <v>0.8</v>
       </c>
       <c r="Q36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -5586,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5597,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E37">
         <v>0.15</v>
@@ -5609,7 +5583,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H37">
         <v>18</v>
@@ -5639,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S37">
         <v>28</v>
@@ -5660,7 +5634,7 @@
         <v>33000001</v>
       </c>
       <c r="X37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5672,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -5683,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E38">
         <v>0.15</v>
@@ -5695,7 +5669,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H38">
         <v>24</v>
@@ -5725,10 +5699,10 @@
         <v>1.8</v>
       </c>
       <c r="Q38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S38">
         <v>12</v>
@@ -5758,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -5769,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>0.15</v>
@@ -5781,7 +5755,7 @@
         <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H39">
         <v>24</v>
@@ -5814,7 +5788,7 @@
         <v>72</v>
       </c>
       <c r="R39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S39">
         <v>9</v>
@@ -5832,7 +5806,7 @@
         <v>33000001</v>
       </c>
       <c r="X39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y39">
         <v>2</v>
@@ -5844,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="AB39" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -5855,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>0.15</v>
@@ -5867,7 +5841,7 @@
         <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -5897,10 +5871,10 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -5918,7 +5892,7 @@
         <v>33000001</v>
       </c>
       <c r="X40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -5930,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -5941,10 +5915,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E41">
         <v>0.15</v>
@@ -5953,7 +5927,7 @@
         <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -5983,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="Q41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S41">
         <v>10</v>
@@ -6004,7 +5978,7 @@
         <v>33000001</v>
       </c>
       <c r="X41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -6016,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="AB41" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -6027,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>0.15</v>
@@ -6039,7 +6013,7 @@
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H42">
         <v>23</v>
@@ -6072,7 +6046,7 @@
         <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S42">
         <v>3</v>
@@ -6102,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -6113,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E43">
         <v>0.15</v>
@@ -6125,7 +6099,7 @@
         <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H43">
         <v>23</v>
@@ -6158,7 +6132,7 @@
         <v>72</v>
       </c>
       <c r="R43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -6188,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -6199,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E44">
         <v>0.15</v>
@@ -6211,7 +6185,7 @@
         <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H44">
         <v>20</v>
@@ -6241,10 +6215,10 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S44">
         <v>18</v>
@@ -6274,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -6285,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45">
         <v>0.15</v>
@@ -6297,7 +6271,7 @@
         <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H45">
         <v>23</v>
@@ -6327,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S45">
         <v>33</v>
@@ -6360,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="AB45" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -6371,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E46">
         <v>0.15</v>
@@ -6383,7 +6357,7 @@
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H46">
         <v>70</v>
@@ -6413,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S46">
         <v>3</v>
@@ -6434,7 +6408,7 @@
         <v>33000001</v>
       </c>
       <c r="X46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y46">
         <v>15</v>
@@ -6446,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="AB46" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -6457,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E47">
         <v>0.15</v>
@@ -6469,7 +6443,7 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -6499,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S47">
         <v>8</v>
@@ -6532,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AB47" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -6543,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E48">
         <v>0.15</v>
@@ -6555,7 +6529,7 @@
         <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -6585,10 +6559,10 @@
         <v>1.5</v>
       </c>
       <c r="Q48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S48">
         <v>27</v>
@@ -6618,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -6629,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E49">
         <v>0.15</v>
@@ -6641,7 +6615,7 @@
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H49">
         <v>45</v>
@@ -6671,10 +6645,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S49">
         <v>35</v>
@@ -6704,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -6715,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E50">
         <v>0.15</v>
@@ -6727,7 +6701,7 @@
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H50">
         <v>20</v>
@@ -6757,10 +6731,10 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S50">
         <v>20</v>
@@ -6778,7 +6752,7 @@
         <v>33000001</v>
       </c>
       <c r="X50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -6790,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6801,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E51">
         <v>0.15</v>
@@ -6813,7 +6787,7 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -6843,10 +6817,10 @@
         <v>0.5</v>
       </c>
       <c r="Q51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S51">
         <v>2</v>
@@ -6864,7 +6838,7 @@
         <v>33000001</v>
       </c>
       <c r="X51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -6876,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -6887,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E52">
         <v>0.15</v>
@@ -6899,7 +6873,7 @@
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H52">
         <v>20</v>
@@ -6929,10 +6903,10 @@
         <v>0.5</v>
       </c>
       <c r="Q52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S52">
         <v>4</v>
@@ -6950,7 +6924,7 @@
         <v>33000001</v>
       </c>
       <c r="X52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -6962,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -6973,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>0.15</v>
@@ -6985,7 +6959,7 @@
         <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H53">
         <v>18</v>
@@ -7015,10 +6989,10 @@
         <v>0.5</v>
       </c>
       <c r="Q53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S53">
         <v>7</v>
@@ -7036,7 +7010,7 @@
         <v>33000001</v>
       </c>
       <c r="X53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -7048,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AB53" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7059,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54">
         <v>0.15</v>
@@ -7071,7 +7045,7 @@
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H54">
         <v>80</v>
@@ -7101,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S54">
         <v>5</v>
@@ -7122,7 +7096,7 @@
         <v>33000001</v>
       </c>
       <c r="X54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y54">
         <v>10</v>
@@ -7134,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="AB54" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -7145,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E55">
         <v>0.15</v>
@@ -7157,7 +7131,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H55">
         <v>300</v>
@@ -7187,10 +7161,10 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S55">
         <v>5</v>
@@ -7208,7 +7182,7 @@
         <v>33000001</v>
       </c>
       <c r="X55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y55">
         <v>10</v>
@@ -7220,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7231,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E56">
         <v>0.15</v>
@@ -7243,7 +7217,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -7273,10 +7247,10 @@
         <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S56">
         <v>35</v>
@@ -7294,7 +7268,7 @@
         <v>33000001</v>
       </c>
       <c r="X56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y56">
         <v>20</v>
@@ -7306,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="AB56" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -7317,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E57">
         <v>0.15</v>
@@ -7329,7 +7303,7 @@
         <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H57">
         <v>250</v>
@@ -7359,10 +7333,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S57">
         <v>5</v>
@@ -7380,7 +7354,7 @@
         <v>33000001</v>
       </c>
       <c r="X57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y57">
         <v>10</v>
@@ -7392,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="AB57" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -7403,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E58">
         <v>0.15</v>
@@ -7415,7 +7389,7 @@
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H58">
         <v>250</v>
@@ -7445,10 +7419,10 @@
         <v>3</v>
       </c>
       <c r="Q58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S58">
         <v>6</v>
@@ -7466,7 +7440,7 @@
         <v>33000001</v>
       </c>
       <c r="X58" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y58">
         <v>10</v>
@@ -7478,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AB58" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" ht="32" customHeight="1" spans="1:28">
@@ -7489,19 +7463,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E64">
         <v>0.5</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H64">
         <v>20</v>
@@ -7510,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K64" t="s">
         <v>71</v>
@@ -7531,10 +7505,10 @@
         <v>0.5</v>
       </c>
       <c r="Q64" t="s">
+        <v>81</v>
+      </c>
+      <c r="R64" t="s">
         <v>82</v>
-      </c>
-      <c r="R64" t="s">
-        <v>83</v>
       </c>
       <c r="S64">
         <v>35</v>
@@ -7552,7 +7526,7 @@
         <v>31000001</v>
       </c>
       <c r="X64" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -7564,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="AB64" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -7575,19 +7549,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H65">
         <v>30</v>
@@ -7596,7 +7570,7 @@
         <v>0.75</v>
       </c>
       <c r="J65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K65" t="s">
         <v>71</v>
@@ -7617,10 +7591,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -7638,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -7650,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AB65" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -7661,19 +7635,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H66">
         <v>30</v>
@@ -7682,7 +7656,7 @@
         <v>1.5</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K66" t="s">
         <v>71</v>
@@ -7703,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -7724,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7736,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="AB66" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -7747,19 +7721,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H67">
         <v>50</v>
@@ -7768,7 +7742,7 @@
         <v>1.5</v>
       </c>
       <c r="J67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K67" t="s">
         <v>71</v>
@@ -7789,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -7810,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -7822,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="AB67" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -7833,19 +7807,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H68">
         <v>50</v>
@@ -7854,7 +7828,7 @@
         <v>1.5</v>
       </c>
       <c r="J68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
@@ -7875,10 +7849,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -7896,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -7908,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AB68" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -7919,19 +7893,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E69">
         <v>0.2</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H69">
         <v>40</v>
@@ -7940,7 +7914,7 @@
         <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -7961,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -7994,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="AB69" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -8005,19 +7979,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E70">
         <v>0.2</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H70">
         <v>40</v>
@@ -8026,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K70" t="s">
         <v>71</v>
@@ -8047,10 +8021,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S70">
         <v>40</v>
@@ -8080,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="AB70" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -8091,61 +8065,61 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E71">
         <v>0.5</v>
       </c>
       <c r="F71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H71">
         <v>200</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
+        <v>279</v>
+      </c>
+      <c r="K71" t="s">
+        <v>280</v>
+      </c>
+      <c r="L71">
+        <v>0.5</v>
+      </c>
+      <c r="M71">
+        <v>0.5</v>
+      </c>
+      <c r="N71">
+        <v>0.5</v>
+      </c>
+      <c r="O71">
+        <v>0.4</v>
+      </c>
+      <c r="P71">
+        <v>0.6</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>281</v>
+      </c>
+      <c r="R71" t="s">
         <v>282</v>
       </c>
-      <c r="K71" t="s">
-        <v>283</v>
-      </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
-      <c r="M71">
-        <v>3</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>0.5</v>
-      </c>
-      <c r="P71">
-        <v>1.5</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>284</v>
-      </c>
-      <c r="R71" t="s">
-        <v>285</v>
-      </c>
       <c r="S71">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="T71" t="b">
         <v>1</v>
       </c>
       <c r="U71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -8160,13 +8134,13 @@
         <v>1000</v>
       </c>
       <c r="Z71" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA71" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="AA71" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="AB71" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -8182,7 +8156,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8199,54 +8173,54 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:8">
       <c r="A2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:8">
@@ -8280,13 +8254,13 @@
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -8306,13 +8280,13 @@
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -8332,13 +8306,13 @@
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -8358,13 +8332,13 @@
         <v>21000004</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -8384,13 +8358,13 @@
         <v>21000005</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8410,10 +8384,10 @@
         <v>21000006</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8436,13 +8410,13 @@
         <v>21000007</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -8462,13 +8436,13 @@
         <v>21000008</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -8488,13 +8462,13 @@
         <v>21000009</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -8514,13 +8488,13 @@
         <v>21000011</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -8540,13 +8514,13 @@
         <v>21000012</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -8566,13 +8540,13 @@
         <v>21000013</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -8592,13 +8566,13 @@
         <v>21000014</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>35</v>
@@ -8618,13 +8592,13 @@
         <v>21000015</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -8644,13 +8618,13 @@
         <v>21000016</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -8670,13 +8644,13 @@
         <v>21000017</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8696,13 +8670,13 @@
         <v>21000018</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>40</v>
@@ -8722,13 +8696,13 @@
         <v>21000019</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -8748,13 +8722,13 @@
         <v>21000020</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -8774,13 +8748,13 @@
         <v>21000021</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -8800,13 +8774,13 @@
         <v>21000022</v>
       </c>
       <c r="B24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -8826,13 +8800,13 @@
         <v>21000023</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -8852,13 +8826,13 @@
         <v>21000024</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8878,13 +8852,13 @@
         <v>21000025</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8904,13 +8878,13 @@
         <v>21000026</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -8930,13 +8904,13 @@
         <v>21000027</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8956,13 +8930,13 @@
         <v>21000028</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8982,13 +8956,13 @@
         <v>21000029</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9008,13 +8982,13 @@
         <v>21000030</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9034,13 +9008,13 @@
         <v>21000031</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9060,13 +9034,13 @@
         <v>21000032</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9086,13 +9060,13 @@
         <v>21000033</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -9112,13 +9086,13 @@
         <v>21000034</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9138,13 +9112,13 @@
         <v>21000035</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9164,13 +9138,13 @@
         <v>21000036</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9190,13 +9164,13 @@
         <v>21000037</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9216,13 +9190,13 @@
         <v>21000038</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9242,13 +9216,13 @@
         <v>21000039</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9268,13 +9242,13 @@
         <v>21000040</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9294,13 +9268,13 @@
         <v>21000041</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9320,13 +9294,13 @@
         <v>21000042</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9346,13 +9320,13 @@
         <v>21000043</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9372,13 +9346,13 @@
         <v>21000044</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9398,13 +9372,13 @@
         <v>21000045</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -9424,13 +9398,13 @@
         <v>21000046</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -9450,13 +9424,13 @@
         <v>21000047</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -9476,13 +9450,13 @@
         <v>21000048</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9502,13 +9476,13 @@
         <v>21000049</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9528,13 +9502,13 @@
         <v>21000050</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -9554,13 +9528,13 @@
         <v>21000051</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9580,13 +9554,13 @@
         <v>21000052</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9606,13 +9580,13 @@
         <v>21000053</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -9632,13 +9606,13 @@
         <v>21000054</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -9693,55 +9667,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:18">
@@ -9752,52 +9726,52 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:18">
@@ -9820,7 +9794,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
@@ -9853,7 +9827,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:18">
@@ -9861,7 +9835,7 @@
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -9873,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -9885,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -9909,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -9917,7 +9891,7 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -9929,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9941,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -9965,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -9973,7 +9947,7 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -9985,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -9997,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10021,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10029,7 +10003,7 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -10041,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10053,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -10077,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -10085,7 +10059,7 @@
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -10109,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10133,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -10141,7 +10115,7 @@
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -10165,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -10189,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -10197,7 +10171,7 @@
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -10221,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -10245,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -10253,7 +10227,7 @@
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -10277,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -10301,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -10309,7 +10283,7 @@
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -10357,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -10365,7 +10339,7 @@
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -10389,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -10413,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -10421,7 +10395,7 @@
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -10445,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -10469,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -10477,7 +10451,7 @@
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C15">
         <v>41000008</v>
@@ -10501,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -10525,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -10533,7 +10507,7 @@
         <v>33000004</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C16">
         <v>41000010</v>
@@ -10545,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -10557,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -10581,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -10589,7 +10563,7 @@
         <v>33000005</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C17">
         <v>41000011</v>
@@ -10613,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -10637,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -10645,7 +10619,7 @@
         <v>33000006</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C18">
         <v>41000012</v>
@@ -10669,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -10693,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -10701,7 +10675,7 @@
         <v>33000007</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C19">
         <v>41000013</v>
@@ -10725,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -10749,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -10757,7 +10731,7 @@
         <v>33000008</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C20">
         <v>41000014</v>
@@ -10781,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -10805,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -10813,7 +10787,7 @@
         <v>33000009</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C21">
         <v>41000015</v>
@@ -10837,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -10861,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -10869,7 +10843,7 @@
         <v>33000010</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C22">
         <v>41000016</v>
@@ -10893,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -10917,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10932,7 +10906,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
@@ -10951,66 +10925,66 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:10">
@@ -11050,7 +11024,7 @@
         <v>41000000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11082,7 +11056,7 @@
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C5">
         <v>1.7</v>
@@ -11114,7 +11088,7 @@
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -11146,7 +11120,7 @@
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11178,7 +11152,7 @@
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -11210,7 +11184,7 @@
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -11242,7 +11216,7 @@
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -11274,7 +11248,7 @@
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11306,7 +11280,7 @@
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -11338,7 +11312,7 @@
         <v>41000009</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -11370,7 +11344,7 @@
         <v>41000010</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -11402,7 +11376,7 @@
         <v>41000011</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -11434,7 +11408,7 @@
         <v>41000012</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11466,7 +11440,7 @@
         <v>41000013</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11498,7 +11472,7 @@
         <v>41000014</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -11530,7 +11504,7 @@
         <v>41000015</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -11562,7 +11536,7 @@
         <v>41000016</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -11594,13 +11568,13 @@
         <v>42000017</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -11633,7 +11607,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -11649,54 +11623,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
@@ -11730,7 +11704,7 @@
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11745,10 +11719,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:8">
@@ -11756,7 +11730,7 @@
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11771,10 +11745,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="2:2">

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF453E-99A6-41FD-B9E1-54B76E3430C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -246,9 +252,6 @@
     <t>0|0</t>
   </si>
   <si>
-    <t>步兵/spine</t>
-  </si>
-  <si>
     <t>A01农夫</t>
   </si>
   <si>
@@ -1390,18 +1393,16 @@
 等级2:造成伤害&lt;color=red&gt;20&lt;/color&gt; 的群体攻击，每次攻击给予英雄造成伤害的&lt;color=red&gt;15%&lt;/color&gt; 的治疗|
 等级3:在第一次攻击&lt;color=red&gt;0.5&lt;/color&gt; 秒后再造成一次攻击|</t>
   </si>
+  <si>
+    <t>农夫/spine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,151 +1417,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,7 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,198 +1459,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1801,255 +1499,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,9 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2077,71 +1530,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2428,304 +1837,304 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.3981481481481" customWidth="1"/>
-    <col min="5" max="6" width="10.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="9.99074074074074" customWidth="1"/>
-    <col min="10" max="10" width="5.35185185185185" customWidth="1"/>
-    <col min="11" max="11" width="8.40740740740741" customWidth="1"/>
-    <col min="12" max="12" width="9.2037037037037" customWidth="1"/>
-    <col min="13" max="13" width="9.36111111111111" customWidth="1"/>
-    <col min="14" max="14" width="8.72222222222222" customWidth="1"/>
-    <col min="15" max="15" width="13.6481481481481" customWidth="1"/>
-    <col min="16" max="16" width="13.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="13.3240740740741" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="14.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="14.75" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="11.3333333333333" customWidth="1"/>
-    <col min="22" max="22" width="11.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="9.66666666666667"/>
-    <col min="24" max="24" width="13.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="17.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="32.8425925925926" customWidth="1"/>
-    <col min="27" max="27" width="26.6574074074074" customWidth="1"/>
-    <col min="28" max="28" width="22.537037037037" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="22" max="22" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="9.625"/>
+    <col min="24" max="24" width="13.125" customWidth="1"/>
+    <col min="25" max="25" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="32.875" customWidth="1"/>
+    <col min="27" max="27" width="26.625" customWidth="1"/>
+    <col min="28" max="28" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:28">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:28">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:28">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:28">
+    <row r="4" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -2811,18 +2220,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="59.05" customHeight="1" spans="1:28">
+    <row r="5" spans="1:28" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1000002</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -2831,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2897,7 +2306,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="58" customHeight="1" spans="1:28">
+    <row r="6" spans="1:28" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1000003</v>
       </c>
@@ -2905,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -2917,7 +2326,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2947,10 +2356,10 @@
         <v>0.75</v>
       </c>
       <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
         <v>81</v>
-      </c>
-      <c r="R6" t="s">
-        <v>82</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -2983,7 +2392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1000005</v>
       </c>
@@ -2991,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
       </c>
       <c r="E7">
         <v>0.15</v>
@@ -3003,7 +2412,7 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -3036,7 +2445,7 @@
         <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -3069,7 +2478,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1000006</v>
       </c>
@@ -3077,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
       </c>
       <c r="E8">
         <v>0.15</v>
@@ -3089,7 +2498,7 @@
         <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -3119,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -3139,8 +2548,8 @@
       <c r="W8">
         <v>32000004</v>
       </c>
-      <c r="X8" s="10" t="s">
-        <v>91</v>
+      <c r="X8" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -3155,7 +2564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1000007</v>
       </c>
@@ -3163,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
         <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
       </c>
       <c r="E9">
         <v>0.15</v>
@@ -3175,7 +2584,7 @@
         <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -3205,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -3226,7 +2635,7 @@
         <v>32000004</v>
       </c>
       <c r="X9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -3241,7 +2650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1000008</v>
       </c>
@@ -3249,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
       </c>
       <c r="E10">
         <v>0.15</v>
@@ -3261,7 +2670,7 @@
         <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>120</v>
@@ -3291,10 +2700,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -3312,7 +2721,7 @@
         <v>32000005</v>
       </c>
       <c r="X10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3327,7 +2736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1000009</v>
       </c>
@@ -3335,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
         <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
       </c>
       <c r="E11">
         <v>0.15</v>
@@ -3347,7 +2756,7 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -3377,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
         <v>81</v>
-      </c>
-      <c r="R11" t="s">
-        <v>82</v>
       </c>
       <c r="S11">
         <v>38</v>
@@ -3398,7 +2807,7 @@
         <v>31000004</v>
       </c>
       <c r="X11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3413,7 +2822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1000010</v>
       </c>
@@ -3421,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
       </c>
       <c r="E12">
         <v>0.15</v>
@@ -3433,7 +2842,7 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -3484,7 +2893,7 @@
         <v>33000006</v>
       </c>
       <c r="X12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3499,7 +2908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1000011</v>
       </c>
@@ -3507,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
       </c>
       <c r="E13">
         <v>0.15</v>
@@ -3519,7 +2928,7 @@
         <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3549,10 +2958,10 @@
         <v>1.5</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S13">
         <v>30</v>
@@ -3585,18 +2994,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1000012</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
         <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
       </c>
       <c r="E14">
         <v>0.15</v>
@@ -3605,7 +3014,7 @@
         <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -3647,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3671,7 +3080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1000013</v>
       </c>
@@ -3679,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
         <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
       </c>
       <c r="E15">
         <v>0.15</v>
@@ -3691,7 +3100,7 @@
         <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -3742,7 +3151,7 @@
         <v>33000006</v>
       </c>
       <c r="X15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3757,7 +3166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1000014</v>
       </c>
@@ -3765,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
         <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
       </c>
       <c r="E16">
         <v>0.15</v>
@@ -3777,7 +3186,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -3807,10 +3216,10 @@
         <v>1.5</v>
       </c>
       <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
         <v>81</v>
-      </c>
-      <c r="R16" t="s">
-        <v>82</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -3828,7 +3237,7 @@
         <v>33000004</v>
       </c>
       <c r="X16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3843,7 +3252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1000015</v>
       </c>
@@ -3851,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
         <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
       </c>
       <c r="E17">
         <v>0.15</v>
@@ -3863,7 +3272,7 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -3914,7 +3323,7 @@
         <v>33000007</v>
       </c>
       <c r="X17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3929,7 +3338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1000016</v>
       </c>
@@ -3937,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
       <c r="E18">
         <v>0.15</v>
@@ -3949,7 +3358,7 @@
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18">
         <v>70</v>
@@ -3979,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S18">
         <v>4</v>
@@ -4015,7 +3424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1000017</v>
       </c>
@@ -4023,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
       </c>
       <c r="E19">
         <v>0.15</v>
@@ -4035,7 +3444,7 @@
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -4068,7 +3477,7 @@
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -4086,7 +3495,7 @@
         <v>31000004</v>
       </c>
       <c r="X19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4101,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1000018</v>
       </c>
@@ -4109,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
         <v>127</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
       </c>
       <c r="E20">
         <v>0.15</v>
@@ -4121,7 +3530,7 @@
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -4151,10 +3560,10 @@
         <v>0.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S20">
         <v>25</v>
@@ -4172,7 +3581,7 @@
         <v>33000001</v>
       </c>
       <c r="X20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4187,7 +3596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1000019</v>
       </c>
@@ -4195,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
       </c>
       <c r="E21">
         <v>0.15</v>
@@ -4207,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -4240,7 +3649,7 @@
         <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4258,7 +3667,7 @@
         <v>33000001</v>
       </c>
       <c r="X21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4273,7 +3682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1000020</v>
       </c>
@@ -4281,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
         <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>133</v>
       </c>
       <c r="E22">
         <v>0.15</v>
@@ -4293,7 +3702,7 @@
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22">
         <v>60</v>
@@ -4326,7 +3735,7 @@
         <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -4359,7 +3768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000021</v>
       </c>
@@ -4367,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>136</v>
       </c>
       <c r="E23">
         <v>0.15</v>
@@ -4379,7 +3788,7 @@
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -4409,10 +3818,10 @@
         <v>0.5</v>
       </c>
       <c r="Q23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -4445,7 +3854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1000022</v>
       </c>
@@ -4453,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
         <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
       </c>
       <c r="E24">
         <v>0.15</v>
@@ -4465,7 +3874,7 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24">
         <v>300</v>
@@ -4495,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S24">
         <v>10</v>
@@ -4516,7 +3925,7 @@
         <v>33000001</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4531,7 +3940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1000023</v>
       </c>
@@ -4539,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
         <v>141</v>
-      </c>
-      <c r="D25" t="s">
-        <v>142</v>
       </c>
       <c r="E25">
         <v>0.15</v>
@@ -4551,7 +3960,7 @@
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25">
         <v>18</v>
@@ -4581,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S25">
         <v>27</v>
@@ -4617,7 +4026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1000024</v>
       </c>
@@ -4625,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
         <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
       </c>
       <c r="E26">
         <v>0.15</v>
@@ -4637,7 +4046,7 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26">
         <v>325</v>
@@ -4667,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S26">
         <v>33</v>
@@ -4688,7 +4097,7 @@
         <v>33000001</v>
       </c>
       <c r="X26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -4703,18 +4112,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1000025</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
         <v>147</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="E27">
         <v>0.15</v>
@@ -4722,10 +4131,10 @@
       <c r="F27" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27">
         <v>40</v>
       </c>
       <c r="I27">
@@ -4749,34 +4158,34 @@
       <c r="O27">
         <v>0.5</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27" t="s">
         <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="9">
+        <v>85</v>
+      </c>
+      <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" t="b">
         <v>0</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27">
         <v>5</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
         <v>33000001</v>
       </c>
-      <c r="X27" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y27" s="9">
+      <c r="X27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y27">
         <v>2</v>
       </c>
       <c r="Z27">
@@ -4789,7 +4198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1000026</v>
       </c>
@@ -4797,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
         <v>151</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
       </c>
       <c r="E28">
         <v>0.15</v>
@@ -4809,7 +4218,7 @@
         <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28">
         <v>22</v>
@@ -4842,7 +4251,7 @@
         <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -4875,7 +4284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1000027</v>
       </c>
@@ -4883,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
         <v>153</v>
-      </c>
-      <c r="D29" t="s">
-        <v>154</v>
       </c>
       <c r="E29">
         <v>0.15</v>
@@ -4895,7 +4304,7 @@
         <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -4925,10 +4334,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S29">
         <v>27</v>
@@ -4946,7 +4355,7 @@
         <v>33000001</v>
       </c>
       <c r="X29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -4961,7 +4370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1000028</v>
       </c>
@@ -4969,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
         <v>157</v>
-      </c>
-      <c r="D30" t="s">
-        <v>158</v>
       </c>
       <c r="E30">
         <v>0.15</v>
@@ -4981,7 +4390,7 @@
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -5011,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S30">
         <v>25</v>
@@ -5047,7 +4456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1000029</v>
       </c>
@@ -5055,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
         <v>160</v>
-      </c>
-      <c r="D31" t="s">
-        <v>161</v>
       </c>
       <c r="E31">
         <v>0.15</v>
@@ -5067,7 +4476,7 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31">
         <v>40</v>
@@ -5100,7 +4509,7 @@
         <v>72</v>
       </c>
       <c r="R31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S31">
         <v>4</v>
@@ -5133,7 +4542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1000030</v>
       </c>
@@ -5141,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
         <v>162</v>
-      </c>
-      <c r="D32" t="s">
-        <v>163</v>
       </c>
       <c r="E32">
         <v>0.15</v>
@@ -5153,7 +4562,7 @@
         <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -5186,7 +4595,7 @@
         <v>72</v>
       </c>
       <c r="R32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -5204,7 +4613,7 @@
         <v>33000001</v>
       </c>
       <c r="X32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -5219,7 +4628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1000031</v>
       </c>
@@ -5227,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
         <v>165</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
       </c>
       <c r="E33">
         <v>0.15</v>
@@ -5239,7 +4648,7 @@
         <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33">
         <v>25</v>
@@ -5269,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S33">
         <v>26</v>
@@ -5305,7 +4714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1000032</v>
       </c>
@@ -5313,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
         <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>168</v>
       </c>
       <c r="E34">
         <v>0.15</v>
@@ -5325,7 +4734,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34">
         <v>24</v>
@@ -5358,7 +4767,7 @@
         <v>72</v>
       </c>
       <c r="R34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S34">
         <v>3</v>
@@ -5391,7 +4800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1000033</v>
       </c>
@@ -5399,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
         <v>170</v>
-      </c>
-      <c r="D35" t="s">
-        <v>171</v>
       </c>
       <c r="E35">
         <v>0.15</v>
@@ -5411,7 +4820,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H35">
         <v>27</v>
@@ -5444,7 +4853,7 @@
         <v>72</v>
       </c>
       <c r="R35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -5477,7 +4886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1000034</v>
       </c>
@@ -5485,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
         <v>173</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
       </c>
       <c r="E36">
         <v>0.15</v>
@@ -5497,7 +4906,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36">
         <v>24</v>
@@ -5527,10 +4936,10 @@
         <v>0.8</v>
       </c>
       <c r="Q36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -5563,7 +4972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1000035</v>
       </c>
@@ -5571,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
         <v>176</v>
-      </c>
-      <c r="D37" t="s">
-        <v>177</v>
       </c>
       <c r="E37">
         <v>0.15</v>
@@ -5583,7 +4992,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H37">
         <v>18</v>
@@ -5613,10 +5022,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S37">
         <v>28</v>
@@ -5634,7 +5043,7 @@
         <v>33000001</v>
       </c>
       <c r="X37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5649,7 +5058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1000036</v>
       </c>
@@ -5657,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
         <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
       </c>
       <c r="E38">
         <v>0.15</v>
@@ -5669,7 +5078,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H38">
         <v>24</v>
@@ -5699,10 +5108,10 @@
         <v>1.8</v>
       </c>
       <c r="Q38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S38">
         <v>12</v>
@@ -5735,7 +5144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1000037</v>
       </c>
@@ -5743,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" t="s">
         <v>182</v>
-      </c>
-      <c r="D39" t="s">
-        <v>183</v>
       </c>
       <c r="E39">
         <v>0.15</v>
@@ -5755,7 +5164,7 @@
         <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39">
         <v>24</v>
@@ -5788,7 +5197,7 @@
         <v>72</v>
       </c>
       <c r="R39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S39">
         <v>9</v>
@@ -5806,7 +5215,7 @@
         <v>33000001</v>
       </c>
       <c r="X39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y39">
         <v>2</v>
@@ -5821,7 +5230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1000038</v>
       </c>
@@ -5829,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" t="s">
         <v>185</v>
-      </c>
-      <c r="D40" t="s">
-        <v>186</v>
       </c>
       <c r="E40">
         <v>0.15</v>
@@ -5841,7 +5250,7 @@
         <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -5871,10 +5280,10 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -5892,7 +5301,7 @@
         <v>33000001</v>
       </c>
       <c r="X40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -5907,7 +5316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1000039</v>
       </c>
@@ -5915,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
         <v>189</v>
-      </c>
-      <c r="D41" t="s">
-        <v>190</v>
       </c>
       <c r="E41">
         <v>0.15</v>
@@ -5927,7 +5336,7 @@
         <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -5957,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="Q41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S41">
         <v>10</v>
@@ -5978,7 +5387,7 @@
         <v>33000001</v>
       </c>
       <c r="X41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -5993,7 +5402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1000040</v>
       </c>
@@ -6001,10 +5410,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
         <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
       </c>
       <c r="E42">
         <v>0.15</v>
@@ -6013,7 +5422,7 @@
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H42">
         <v>23</v>
@@ -6046,7 +5455,7 @@
         <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S42">
         <v>3</v>
@@ -6079,7 +5488,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1000041</v>
       </c>
@@ -6087,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
         <v>195</v>
-      </c>
-      <c r="D43" t="s">
-        <v>196</v>
       </c>
       <c r="E43">
         <v>0.15</v>
@@ -6099,7 +5508,7 @@
         <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H43">
         <v>23</v>
@@ -6132,7 +5541,7 @@
         <v>72</v>
       </c>
       <c r="R43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -6165,7 +5574,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1000042</v>
       </c>
@@ -6173,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" t="s">
         <v>198</v>
-      </c>
-      <c r="D44" t="s">
-        <v>199</v>
       </c>
       <c r="E44">
         <v>0.15</v>
@@ -6185,7 +5594,7 @@
         <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H44">
         <v>20</v>
@@ -6215,10 +5624,10 @@
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S44">
         <v>18</v>
@@ -6251,7 +5660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1000043</v>
       </c>
@@ -6259,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
         <v>201</v>
-      </c>
-      <c r="D45" t="s">
-        <v>202</v>
       </c>
       <c r="E45">
         <v>0.15</v>
@@ -6271,7 +5680,7 @@
         <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45">
         <v>23</v>
@@ -6301,10 +5710,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S45">
         <v>33</v>
@@ -6337,7 +5746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1000044</v>
       </c>
@@ -6345,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s">
         <v>204</v>
-      </c>
-      <c r="D46" t="s">
-        <v>205</v>
       </c>
       <c r="E46">
         <v>0.15</v>
@@ -6357,7 +5766,7 @@
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46">
         <v>70</v>
@@ -6387,10 +5796,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S46">
         <v>3</v>
@@ -6408,7 +5817,7 @@
         <v>33000001</v>
       </c>
       <c r="X46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y46">
         <v>15</v>
@@ -6423,7 +5832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1000045</v>
       </c>
@@ -6431,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
         <v>208</v>
-      </c>
-      <c r="D47" t="s">
-        <v>209</v>
       </c>
       <c r="E47">
         <v>0.15</v>
@@ -6443,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -6473,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S47">
         <v>8</v>
@@ -6509,7 +5918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1000046</v>
       </c>
@@ -6517,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" t="s">
         <v>211</v>
-      </c>
-      <c r="D48" t="s">
-        <v>212</v>
       </c>
       <c r="E48">
         <v>0.15</v>
@@ -6529,7 +5938,7 @@
         <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -6559,10 +5968,10 @@
         <v>1.5</v>
       </c>
       <c r="Q48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S48">
         <v>27</v>
@@ -6595,7 +6004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1000047</v>
       </c>
@@ -6603,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
         <v>214</v>
-      </c>
-      <c r="D49" t="s">
-        <v>215</v>
       </c>
       <c r="E49">
         <v>0.15</v>
@@ -6615,7 +6024,7 @@
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H49">
         <v>45</v>
@@ -6645,10 +6054,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S49">
         <v>35</v>
@@ -6657,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -6681,7 +6090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1000048</v>
       </c>
@@ -6689,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" t="s">
         <v>217</v>
-      </c>
-      <c r="D50" t="s">
-        <v>218</v>
       </c>
       <c r="E50">
         <v>0.15</v>
@@ -6701,7 +6110,7 @@
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H50">
         <v>20</v>
@@ -6731,10 +6140,10 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S50">
         <v>20</v>
@@ -6752,7 +6161,7 @@
         <v>33000001</v>
       </c>
       <c r="X50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -6767,7 +6176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1000049</v>
       </c>
@@ -6775,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" t="s">
         <v>220</v>
-      </c>
-      <c r="D51" t="s">
-        <v>221</v>
       </c>
       <c r="E51">
         <v>0.15</v>
@@ -6787,7 +6196,7 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -6817,10 +6226,10 @@
         <v>0.5</v>
       </c>
       <c r="Q51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S51">
         <v>2</v>
@@ -6838,7 +6247,7 @@
         <v>33000001</v>
       </c>
       <c r="X51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -6853,7 +6262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1000050</v>
       </c>
@@ -6861,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" t="s">
         <v>223</v>
-      </c>
-      <c r="D52" t="s">
-        <v>224</v>
       </c>
       <c r="E52">
         <v>0.15</v>
@@ -6873,7 +6282,7 @@
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H52">
         <v>20</v>
@@ -6903,10 +6312,10 @@
         <v>0.5</v>
       </c>
       <c r="Q52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S52">
         <v>4</v>
@@ -6924,7 +6333,7 @@
         <v>33000001</v>
       </c>
       <c r="X52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -6939,7 +6348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1000051</v>
       </c>
@@ -6947,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" t="s">
         <v>226</v>
-      </c>
-      <c r="D53" t="s">
-        <v>227</v>
       </c>
       <c r="E53">
         <v>0.15</v>
@@ -6959,7 +6368,7 @@
         <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H53">
         <v>18</v>
@@ -6989,10 +6398,10 @@
         <v>0.5</v>
       </c>
       <c r="Q53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S53">
         <v>7</v>
@@ -7010,7 +6419,7 @@
         <v>33000001</v>
       </c>
       <c r="X53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -7025,7 +6434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1000052</v>
       </c>
@@ -7033,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
         <v>229</v>
-      </c>
-      <c r="D54" t="s">
-        <v>230</v>
       </c>
       <c r="E54">
         <v>0.15</v>
@@ -7045,7 +6454,7 @@
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H54">
         <v>80</v>
@@ -7075,10 +6484,10 @@
         <v>1</v>
       </c>
       <c r="Q54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S54">
         <v>5</v>
@@ -7096,7 +6505,7 @@
         <v>33000001</v>
       </c>
       <c r="X54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y54">
         <v>10</v>
@@ -7111,7 +6520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1000053</v>
       </c>
@@ -7119,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
         <v>232</v>
-      </c>
-      <c r="D55" t="s">
-        <v>233</v>
       </c>
       <c r="E55">
         <v>0.15</v>
@@ -7131,7 +6540,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H55">
         <v>300</v>
@@ -7161,10 +6570,10 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S55">
         <v>5</v>
@@ -7182,7 +6591,7 @@
         <v>33000001</v>
       </c>
       <c r="X55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y55">
         <v>10</v>
@@ -7197,7 +6606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1000054</v>
       </c>
@@ -7205,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
         <v>235</v>
-      </c>
-      <c r="D56" t="s">
-        <v>236</v>
       </c>
       <c r="E56">
         <v>0.15</v>
@@ -7217,7 +6626,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -7247,10 +6656,10 @@
         <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S56">
         <v>35</v>
@@ -7268,7 +6677,7 @@
         <v>33000001</v>
       </c>
       <c r="X56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y56">
         <v>20</v>
@@ -7283,7 +6692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1000055</v>
       </c>
@@ -7291,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
         <v>238</v>
-      </c>
-      <c r="D57" t="s">
-        <v>239</v>
       </c>
       <c r="E57">
         <v>0.15</v>
@@ -7303,7 +6712,7 @@
         <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57">
         <v>250</v>
@@ -7333,10 +6742,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S57">
         <v>5</v>
@@ -7354,7 +6763,7 @@
         <v>33000001</v>
       </c>
       <c r="X57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y57">
         <v>10</v>
@@ -7369,7 +6778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1000056</v>
       </c>
@@ -7377,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" t="s">
         <v>242</v>
-      </c>
-      <c r="D58" t="s">
-        <v>243</v>
       </c>
       <c r="E58">
         <v>0.15</v>
@@ -7389,7 +6798,7 @@
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H58">
         <v>250</v>
@@ -7419,10 +6828,10 @@
         <v>3</v>
       </c>
       <c r="Q58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S58">
         <v>6</v>
@@ -7440,7 +6849,7 @@
         <v>33000001</v>
       </c>
       <c r="X58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y58">
         <v>10</v>
@@ -7455,7 +6864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" ht="32" customHeight="1" spans="1:28">
+    <row r="64" spans="1:28" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>2000001</v>
       </c>
@@ -7463,19 +6872,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" t="s">
         <v>245</v>
-      </c>
-      <c r="D64" t="s">
-        <v>246</v>
       </c>
       <c r="E64">
         <v>0.5</v>
       </c>
       <c r="F64" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="H64">
         <v>20</v>
@@ -7484,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K64" t="s">
         <v>71</v>
@@ -7505,10 +6914,10 @@
         <v>0.5</v>
       </c>
       <c r="Q64" t="s">
+        <v>80</v>
+      </c>
+      <c r="R64" t="s">
         <v>81</v>
-      </c>
-      <c r="R64" t="s">
-        <v>82</v>
       </c>
       <c r="S64">
         <v>35</v>
@@ -7525,8 +6934,8 @@
       <c r="W64">
         <v>31000001</v>
       </c>
-      <c r="X64" s="10" t="s">
-        <v>150</v>
+      <c r="X64" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -7541,7 +6950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>2000002</v>
       </c>
@@ -7549,19 +6958,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" t="s">
         <v>250</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
         <v>251</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>252</v>
       </c>
       <c r="H65">
         <v>30</v>
@@ -7570,7 +6979,7 @@
         <v>0.75</v>
       </c>
       <c r="J65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K65" t="s">
         <v>71</v>
@@ -7591,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -7611,8 +7020,8 @@
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65" s="10" t="s">
-        <v>254</v>
+      <c r="X65" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -7627,7 +7036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>2000003</v>
       </c>
@@ -7635,19 +7044,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" t="s">
         <v>255</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
         <v>256</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>257</v>
       </c>
       <c r="H66">
         <v>30</v>
@@ -7656,7 +7065,7 @@
         <v>1.5</v>
       </c>
       <c r="J66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K66" t="s">
         <v>71</v>
@@ -7677,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -7697,8 +7106,8 @@
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66" s="10" t="s">
-        <v>254</v>
+      <c r="X66" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7713,7 +7122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>2000004</v>
       </c>
@@ -7721,19 +7130,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" t="s">
         <v>259</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
         <v>260</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>261</v>
       </c>
       <c r="H67">
         <v>50</v>
@@ -7742,7 +7151,7 @@
         <v>1.5</v>
       </c>
       <c r="J67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K67" t="s">
         <v>71</v>
@@ -7763,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -7783,8 +7192,8 @@
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67" s="10" t="s">
-        <v>254</v>
+      <c r="X67" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -7799,7 +7208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2000005</v>
       </c>
@@ -7807,19 +7216,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" t="s">
         <v>263</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
         <v>264</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>265</v>
       </c>
       <c r="H68">
         <v>50</v>
@@ -7828,7 +7237,7 @@
         <v>1.5</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
@@ -7849,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -7869,8 +7278,8 @@
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68" s="10" t="s">
-        <v>254</v>
+      <c r="X68" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -7885,7 +7294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>3000001</v>
       </c>
@@ -7893,19 +7302,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" t="s">
         <v>266</v>
-      </c>
-      <c r="D69" t="s">
-        <v>267</v>
       </c>
       <c r="E69">
         <v>0.2</v>
       </c>
       <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" t="s">
         <v>268</v>
-      </c>
-      <c r="G69" t="s">
-        <v>269</v>
       </c>
       <c r="H69">
         <v>40</v>
@@ -7914,7 +7323,7 @@
         <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -7929,16 +7338,16 @@
         <v>10</v>
       </c>
       <c r="O69">
-        <v>0.3835</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -7971,7 +7380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>3000002</v>
       </c>
@@ -7979,19 +7388,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" t="s">
         <v>272</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
       </c>
       <c r="E70">
         <v>0.2</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H70">
         <v>40</v>
@@ -8000,7 +7409,7 @@
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K70" t="s">
         <v>71</v>
@@ -8015,16 +7424,16 @@
         <v>10</v>
       </c>
       <c r="O70">
-        <v>0.3835</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="P70">
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S70">
         <v>40</v>
@@ -8057,7 +7466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>4000001</v>
       </c>
@@ -8065,19 +7474,19 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
         <v>275</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
       </c>
       <c r="E71">
         <v>0.5</v>
       </c>
       <c r="F71" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H71">
         <v>200</v>
@@ -8086,10 +7495,10 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
+        <v>278</v>
+      </c>
+      <c r="K71" t="s">
         <v>279</v>
-      </c>
-      <c r="K71" t="s">
-        <v>280</v>
       </c>
       <c r="L71">
         <v>0.5</v>
@@ -8107,10 +7516,10 @@
         <v>0.6</v>
       </c>
       <c r="Q71" t="s">
+        <v>280</v>
+      </c>
+      <c r="R71" t="s">
         <v>281</v>
-      </c>
-      <c r="R71" t="s">
-        <v>282</v>
       </c>
       <c r="S71">
         <v>9.5</v>
@@ -8134,133 +7543,132 @@
         <v>1000</v>
       </c>
       <c r="Z71" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA71" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="AA71" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="AB71" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.68518518518519"/>
+    <col min="1" max="1" width="9.625"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="30.8981481481481" customWidth="1"/>
-    <col min="4" max="4" width="17.5277777777778" customWidth="1"/>
-    <col min="5" max="5" width="16.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.787037037037" customWidth="1"/>
-    <col min="7" max="7" width="11.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="11.787037037037" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>21000001</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -8275,18 +7683,18 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>21000002</v>
       </c>
       <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
         <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>304</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -8301,18 +7709,18 @@
         <v>1000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>21000003</v>
       </c>
       <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
         <v>305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>306</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -8327,18 +7735,18 @@
         <v>1000009</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>21000004</v>
       </c>
       <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
         <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>308</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -8353,18 +7761,18 @@
         <v>1000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>21000005</v>
       </c>
       <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>310</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8379,15 +7787,15 @@
         <v>1000006</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>21000006</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8405,18 +7813,18 @@
         <v>4000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>21000007</v>
       </c>
       <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
         <v>312</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>313</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -8431,18 +7839,18 @@
         <v>1000010</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>21000008</v>
       </c>
       <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>314</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>315</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -8457,18 +7865,18 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>21000009</v>
       </c>
       <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
         <v>316</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>317</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -8483,18 +7891,18 @@
         <v>1000012</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>21000011</v>
       </c>
       <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
         <v>318</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>319</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -8509,18 +7917,18 @@
         <v>1000013</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>21000012</v>
       </c>
       <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
         <v>320</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>321</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -8535,18 +7943,18 @@
         <v>1000014</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>21000013</v>
       </c>
       <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
         <v>322</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>323</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -8561,18 +7969,18 @@
         <v>1000015</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>21000014</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>35</v>
@@ -8587,18 +7995,18 @@
         <v>1000016</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>21000015</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -8613,18 +8021,18 @@
         <v>1000017</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>21000016</v>
       </c>
       <c r="B18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
         <v>326</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>327</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -8639,18 +8047,18 @@
         <v>1000018</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>21000017</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8665,18 +8073,18 @@
         <v>1000019</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>21000018</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20">
         <v>40</v>
@@ -8691,18 +8099,18 @@
         <v>1000020</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21000019</v>
       </c>
       <c r="B21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
         <v>330</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>331</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -8717,18 +8125,18 @@
         <v>1000021</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21000020</v>
       </c>
       <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
         <v>332</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" t="s">
-        <v>333</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -8743,18 +8151,18 @@
         <v>1000022</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21000021</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -8769,18 +8177,18 @@
         <v>1000023</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21000022</v>
       </c>
       <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
         <v>335</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" t="s">
-        <v>336</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -8795,18 +8203,18 @@
         <v>1000024</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21000023</v>
       </c>
       <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
         <v>337</v>
-      </c>
-      <c r="C25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" t="s">
-        <v>338</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -8821,18 +8229,18 @@
         <v>1000025</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>21000024</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8847,18 +8255,18 @@
         <v>1000026</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>21000025</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8873,18 +8281,18 @@
         <v>1000027</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>21000026</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -8899,18 +8307,18 @@
         <v>1000028</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>21000027</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8925,18 +8333,18 @@
         <v>1000029</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>21000028</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8951,18 +8359,18 @@
         <v>1000030</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>21000029</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -8977,18 +8385,18 @@
         <v>1000031</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>21000030</v>
       </c>
       <c r="B33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9003,18 +8411,18 @@
         <v>1000032</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>21000031</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9029,18 +8437,18 @@
         <v>1000033</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>21000032</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9055,18 +8463,18 @@
         <v>1000034</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>21000033</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -9081,18 +8489,18 @@
         <v>1000035</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>21000034</v>
       </c>
       <c r="B37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9107,18 +8515,18 @@
         <v>1000036</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>21000035</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9133,18 +8541,18 @@
         <v>1000037</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21000036</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9159,18 +8567,18 @@
         <v>1000038</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>21000037</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9185,18 +8593,18 @@
         <v>1000039</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>21000038</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9211,18 +8619,18 @@
         <v>1000040</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>21000039</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9237,18 +8645,18 @@
         <v>1000041</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>21000040</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9263,18 +8671,18 @@
         <v>1000042</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>21000041</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9289,18 +8697,18 @@
         <v>1000043</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>21000042</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9315,18 +8723,18 @@
         <v>1000044</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>21000043</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9341,18 +8749,18 @@
         <v>1000045</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>21000044</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9367,18 +8775,18 @@
         <v>1000046</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>21000045</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -9393,18 +8801,18 @@
         <v>1000047</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>21000046</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -9419,18 +8827,18 @@
         <v>1000048</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>21000047</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -9445,18 +8853,18 @@
         <v>1000049</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>21000048</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9471,18 +8879,18 @@
         <v>1000050</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>21000049</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9497,18 +8905,18 @@
         <v>1000051</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>21000050</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -9523,18 +8931,18 @@
         <v>1000052</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>21000051</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9549,18 +8957,18 @@
         <v>1000053</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>21000052</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9575,18 +8983,18 @@
         <v>1000054</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>21000053</v>
       </c>
       <c r="B56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -9601,18 +9009,18 @@
         <v>1000055</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>21000054</v>
       </c>
       <c r="B57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -9628,214 +9036,213 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.10185185185185" customWidth="1"/>
-    <col min="2" max="2" width="25.787037037037" customWidth="1"/>
-    <col min="3" max="3" width="14.6851851851852" customWidth="1"/>
-    <col min="4" max="4" width="10.6851851851852" customWidth="1"/>
-    <col min="5" max="5" width="9.10185185185185" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="13.5277777777778" customWidth="1"/>
-    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.0462962962963" customWidth="1"/>
-    <col min="12" max="12" width="10.3148148148148" customWidth="1"/>
-    <col min="13" max="13" width="17.2037037037037" customWidth="1"/>
-    <col min="14" max="14" width="12.4166666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.2037037037037" customWidth="1"/>
-    <col min="16" max="16" width="13.5277777777778" customWidth="1"/>
-    <col min="17" max="17" width="12.8981481481481"/>
-    <col min="18" max="18" width="21.5277777777778" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="12.875"/>
+    <col min="18" max="18" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:18">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="R1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:18">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="R2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:18">
-      <c r="A3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="N3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:18">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>31000001</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4">
         <v>41000001</v>
@@ -9847,51 +9254,51 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>374</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5">
         <v>41000007</v>
@@ -9903,51 +9310,51 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>374</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6">
         <v>41000000</v>
@@ -9959,51 +9366,51 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>374</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7">
         <v>41000000</v>
@@ -10015,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10027,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -10051,15 +9458,15 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>32000001</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8">
         <v>41000001</v>
@@ -10083,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10107,15 +9514,15 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>32000002</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9">
         <v>41000002</v>
@@ -10139,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -10163,15 +9570,15 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>32000003</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10">
         <v>41000003</v>
@@ -10195,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -10219,15 +9626,15 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>32000004</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C11">
         <v>41000004</v>
@@ -10251,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -10275,15 +9682,15 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>32000005</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12">
         <v>41000005</v>
@@ -10331,15 +9738,15 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>33000001</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13">
         <v>41000001</v>
@@ -10363,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -10387,15 +9794,15 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>33000002</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14">
         <v>41000006</v>
@@ -10419,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -10443,15 +9850,15 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>33000003</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15">
         <v>41000008</v>
@@ -10475,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -10499,15 +9906,15 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>33000004</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16">
         <v>41000010</v>
@@ -10519,7 +9926,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -10531,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -10555,15 +9962,15 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>33000005</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C17">
         <v>41000011</v>
@@ -10587,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -10611,15 +10018,15 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>33000006</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C18">
         <v>41000012</v>
@@ -10643,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -10667,15 +10074,15 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>33000007</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <v>41000013</v>
@@ -10699,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -10723,15 +10130,15 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>33000008</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C20">
         <v>41000014</v>
@@ -10755,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -10779,15 +10186,15 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>33000009</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21">
         <v>41000015</v>
@@ -10811,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -10835,15 +10242,15 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>33000010</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22">
         <v>41000016</v>
@@ -10867,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -10891,141 +10298,140 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.787037037037" customWidth="1"/>
-    <col min="2" max="2" width="25.3148148148148" customWidth="1"/>
-    <col min="3" max="3" width="18.8981481481481" customWidth="1"/>
-    <col min="4" max="4" width="16.3148148148148" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.8981481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.5277777777778" customWidth="1"/>
-    <col min="10" max="10" width="21.6851851851852" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>41000000</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:10">
-      <c r="A4" s="5">
-        <v>41000000</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -11051,12 +10457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>41000001</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5">
         <v>1.7</v>
@@ -11083,12 +10489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>41000002</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -11115,12 +10521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>41000003</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11147,12 +10553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>41000004</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -11179,12 +10585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>41000005</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -11211,12 +10617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>41000006</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -11243,12 +10649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>41000007</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11275,12 +10681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>41000008</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -11307,12 +10713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>41000009</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -11339,12 +10745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>41000010</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -11371,12 +10777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>41000011</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -11403,12 +10809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>41000012</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11435,12 +10841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>41000013</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11467,12 +10873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>41000014</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -11499,12 +10905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>41000015</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -11531,12 +10937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>41000016</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -11563,12 +10969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>42000017</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11596,84 +11002,83 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.8888888888889" customWidth="1"/>
-    <col min="5" max="6" width="13.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="69.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -11699,38 +11104,38 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="92" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>51000001</v>
       </c>
       <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>446</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.001</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" ht="137" customHeight="1" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51000002</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11745,17 +11150,14 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53EA693-DEB4-43FE-9602-23E0E64FD89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7D55D-C917-402D-A4B9-5E61592010E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1020" windowWidth="21645" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>33000001</v>
+        <v>41000001</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>3.5</v>
       </c>
       <c r="O11">
-        <v>31000004</v>
+        <v>41000001</v>
       </c>
       <c r="P11" t="s">
         <v>72</v>
@@ -2483,7 +2483,7 @@
         <v>5.5</v>
       </c>
       <c r="O12">
-        <v>33000006</v>
+        <v>41000001</v>
       </c>
       <c r="P12" t="s">
         <v>78</v>
@@ -3475,7 +3475,7 @@
         <v>5</v>
       </c>
       <c r="O28">
-        <v>33000001</v>
+        <v>41000001</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -8609,7 +8609,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7D55D-C917-402D-A4B9-5E61592010E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB81811-BB42-43EA-B476-805AE57AFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="421">
   <si>
     <t>实体id</t>
   </si>
@@ -1283,6 +1283,32 @@
   <si>
     <t>农夫/spine</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物或伤害id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮灰单体物理单位攻击（骷髅兵，农夫等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级单体物理单位攻击（小恶魔，步兵等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级aoe单位物理攻击（处刑者）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级aoe单位魔法攻击（熔炉蛞蝓）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理击中特效</t>
+  </si>
+  <si>
+    <t>熔炉火</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,6 +1451,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1750,6 +1779,7 @@
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1"/>
     <col min="16" max="16" width="13.125" customWidth="1"/>
     <col min="17" max="17" width="17.125" customWidth="1"/>
     <col min="18" max="18" width="32.875" customWidth="1"/>
@@ -1800,8 +1830,8 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
+      <c r="O1" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>15</v>
@@ -1960,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1978,7 +2008,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -1987,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>41000001</v>
+        <v>41000021</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2022,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2034,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="K5">
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -2049,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>41000001</v>
+        <v>41000020</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2090,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2232,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>32000004</v>
+        <v>41000022</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>65</v>
@@ -2297,7 +2327,7 @@
         <v>4.5</v>
       </c>
       <c r="O9">
-        <v>32000004</v>
+        <v>41000023</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -2456,7 +2486,7 @@
         <v>77</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2474,7 +2504,7 @@
         <v>0.3</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -2483,7 +2513,7 @@
         <v>5.5</v>
       </c>
       <c r="O12">
-        <v>41000001</v>
+        <v>41000020</v>
       </c>
       <c r="P12" t="s">
         <v>78</v>
@@ -3460,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="K28">
         <v>0.5</v>
@@ -3475,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="O28">
-        <v>41000001</v>
+        <v>41000021</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3516,13 +3546,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3537,7 +3567,7 @@
         <v>5.5</v>
       </c>
       <c r="O29">
-        <v>33000001</v>
+        <v>31000001</v>
       </c>
       <c r="P29" t="s">
         <v>129</v>
@@ -7342,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7542,7 +7572,7 @@
         <v>334</v>
       </c>
       <c r="C4">
-        <v>41000001</v>
+        <v>42000017</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -7913,8 +7943,8 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>4</v>
+      <c r="O10" t="s">
+        <v>420</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -8606,16 +8636,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -8744,11 +8774,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>419</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -8762,7 +8792,7 @@
         <v>381</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8776,11 +8806,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>419</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -8808,11 +8838,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>419</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -8840,11 +8870,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>419</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -8872,11 +8902,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>419</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -8904,11 +8934,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>419</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -8936,11 +8966,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>419</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -8968,11 +8998,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>419</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9000,11 +9030,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="H12" t="s">
+        <v>419</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -9021,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9032,11 +9062,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>419</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -9064,11 +9094,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>419</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -9096,11 +9126,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>419</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -9128,11 +9158,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="H16" t="s">
+        <v>419</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -9160,11 +9190,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>419</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -9192,11 +9222,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>419</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -9224,11 +9254,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>419</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -9256,11 +9286,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>419</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -9277,24 +9307,152 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>41000020</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>41000021</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23">
+        <v>2.5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>41000022</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>41000023</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>419</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB81811-BB42-43EA-B476-805AE57AFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6548DDE2-E046-4C42-9ADF-3831A44DEC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1990,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>57</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>220</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0.5</v>
@@ -5462,7 +5462,7 @@
         <v>223</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>227</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>230</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>233</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7372,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7908,7 +7908,7 @@
         <v>345</v>
       </c>
       <c r="C10">
-        <v>41000003</v>
+        <v>41000023</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8639,7 +8639,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6548DDE2-E046-4C42-9ADF-3831A44DEC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A370B-0934-4BCC-A4A2-F8804707E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5861,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="O71">
-        <v>33000003</v>
+        <v>41000015</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -8639,7 +8639,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A370B-0934-4BCC-A4A2-F8804707E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F7268-80FB-4A2A-994F-E98EE26C699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5400,7 +5400,7 @@
         <v>220</v>
       </c>
       <c r="F64">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>242</v>
       </c>
       <c r="F71">
-        <v>200</v>
+        <v>9999</v>
       </c>
       <c r="G71">
         <v>0.5</v>

--- a/Assets/Resources/DataTables/EntityExcel.xlsx
+++ b/Assets/Resources/DataTables/EntityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\DemonOverwhelming\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F7268-80FB-4A2A-994F-E98EE26C699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648234B9-BBD2-4D88-9094-57B5E278799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -1762,32 +1762,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="18" width="32.875" customWidth="1"/>
-    <col min="19" max="19" width="26.625" customWidth="1"/>
-    <col min="20" max="20" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="32.88671875" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000002</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000003</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000005</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000006</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000007</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000008</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000009</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000010</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1000011</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000012</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000013</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000014</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1000015</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000016</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1000017</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000018</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1000019</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000020</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1000021</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1000022</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000023</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1000024</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1000025</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1000026</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1000027</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1000028</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1000029</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1000030</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000031</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000032</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000033</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000034</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000035</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1000036</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1000037</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1000038</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1000039</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1000040</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1000041</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1000042</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1000043</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1000044</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1000045</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1000046</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1000047</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1000048</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1000049</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1000050</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1000051</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1000052</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1000053</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1000054</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1000055</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1000056</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2000001</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2000002</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2000003</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2000004</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2000005</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3000001</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3000002</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4000001</v>
       </c>
@@ -5890,23 +5890,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625"/>
+    <col min="1" max="1" width="9.6640625"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>246</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>254</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21000001</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21000002</v>
       </c>
@@ -6030,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21000003</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1000009</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21000004</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21000005</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>1000006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21000006</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>4000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21000007</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1000010</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21000008</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21000009</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1000012</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21000011</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>1000013</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21000012</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1000014</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21000013</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1000015</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21000014</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1000016</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21000015</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1000017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21000016</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1000018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21000017</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1000019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21000018</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>1000020</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21000019</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>1000021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21000020</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1000022</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21000021</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1000023</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21000022</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1000024</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21000023</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1000025</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21000024</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1000026</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21000025</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1000027</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21000026</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1000028</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21000027</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1000029</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21000028</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>1000030</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21000029</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1000031</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21000030</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1000032</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>21000031</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>1000033</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21000032</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>1000034</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21000033</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1000035</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21000034</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1000036</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21000035</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1000037</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21000036</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1000038</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21000037</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1000039</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21000038</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1000040</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21000039</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1000041</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>21000040</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1000042</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21000041</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1000043</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21000042</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1000044</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21000043</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1000045</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21000044</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1000046</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>21000045</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1000047</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21000046</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>1000048</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21000047</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1000049</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21000048</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1000050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21000049</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1000051</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>21000050</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>1000052</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21000051</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>1000053</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21000052</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>1000054</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>21000053</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1000055</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21000054</v>
       </c>
@@ -7376,27 +7376,27 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875"/>
-    <col min="18" max="18" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875"/>
+    <col min="18" max="18" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31000001</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31000002</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31000003</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31000004</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32000001</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32000002</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32000003</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32000004</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32000005</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>33000001</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33000002</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33000003</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33000004</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>33000005</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33000006</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33000007</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33000008</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33000009</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33000010</v>
       </c>
@@ -8642,21 +8642,21 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>361</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>371</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>41000000</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41000001</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>41000002</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41000003</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41000004</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41000005</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41000006</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>41000007</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41000008</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41000009</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41000010</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41000011</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41000012</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>41000013</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>41000014</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>41000015</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41000016</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42000017</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>41000020</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41000021</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41000022</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41000023</v>
       </c>
@@ -9470,18 +9470,18 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="69.125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>401</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>51000001</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>51000002</v>
       </c>
